--- a/outputs-HGR-r202-archive/g__Corynebacterium_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Corynebacterium_train.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,38 +624,38 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000403725_1.fasta</t>
+          <t>label_GCF_000403725_0.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008591336785967109</v>
+        <v>0.01655034006899273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2340991371879505</v>
+        <v>0.1452733141794534</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2340991371879505</v>
+        <v>0.1452733141794534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2268026535194438</v>
+        <v>0.2009230579492983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05481870538134675</v>
+        <v>0.03158894259755209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004439009361862745</v>
+        <v>0.0165727382457089</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02499170904499328</v>
+        <v>0.05020463113753398</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01019276610864182</v>
+        <v>0.1452733141794534</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2019655454218436</v>
+        <v>0.2483403474625539</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2340991371879505</v>
+        <v>0.2483403474625539</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -666,166 +666,82 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000403725_2.fasta</t>
+          <t>label_GCF_000403725_3.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008950119409461828</v>
+        <v>0.01832432783546672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07350423401875419</v>
+        <v>0.004612593237029688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07350423401875419</v>
+        <v>0.1887883907142942</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2198189519216694</v>
+        <v>0.2098170590103971</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4136357118433261</v>
+        <v>0.0765689634076946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003482945188907514</v>
+        <v>0.1887883907142942</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01776853343539836</v>
+        <v>0.005677186796781464</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0107363429558561</v>
+        <v>0.00461259323702967</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1785989272078724</v>
+        <v>0.3028104950470124</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4136357118433261</v>
+        <v>0.3028104950470124</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium amycolatum_A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000403725_0.fasta</t>
+          <t>label_GCF_000403725_4.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01655034006899273</v>
+        <v>0.007901975803222851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452733141794534</v>
+        <v>0.7475207059196806</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1452733141794534</v>
+        <v>0.007901975803222851</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2009230579492983</v>
+        <v>0.1971267432774679</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03158894259755209</v>
+        <v>0.007901975804342097</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0165727382457089</v>
+        <v>0.007901975803222555</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05020463113753398</v>
+        <v>0.007901975803222555</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1452733141794534</v>
+        <v>0.00790223507305333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2483403474625539</v>
+        <v>0.007940436712565247</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2483403474625539</v>
+        <v>0.7475207059196806</v>
       </c>
       <c r="L5" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium ammoniagenes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000403725_3.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01832432783546672</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.004612593237029688</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1887883907142942</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2098170590103971</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0765689634076946</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1887883907142942</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.005677186796781464</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.00461259323702967</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3028104950470124</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.3028104950470124</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium amycolatum_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000403725_4.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.007901975803222851</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7475207059196806</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.007901975803222851</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1971267432774679</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.007901975804342097</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.007901975803222555</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.007901975803222555</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.00790223507305333</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.007940436712565247</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.7475207059196806</v>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>s__Corynebacterium ammoniagenes</t>
         </is>
@@ -1130,7 +1046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,122 +1665,122 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_0.fasta</t>
+          <t>label_UMGS56_22.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02399454986904783</v>
+        <v>0.02307671499259537</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2422459679198443</v>
+        <v>0.02993024431904064</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2422459679198443</v>
+        <v>0.02993024431904064</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3212903339074136</v>
+        <v>0.2860710423899483</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005025868712998503</v>
+        <v>0.001979771153101412</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005025538014228446</v>
+        <v>0.008423897923583471</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00541581519446852</v>
+        <v>0.0207545588516671</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008758580262100643</v>
+        <v>0.02993024431904064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.145997378200054</v>
+        <v>0.5699032817319823</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3212903339074136</v>
+        <v>0.5699032817319823</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_14.fasta</t>
+          <t>label_UMGS56_23.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02679106305807285</v>
+        <v>0.02346428872149471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1631520327176831</v>
+        <v>0.03260612575753255</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1631520327176831</v>
+        <v>0.03260612575753255</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3094066034121138</v>
+        <v>0.2624676972048401</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004747824526959771</v>
+        <v>0.002181328309886806</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004731767331194511</v>
+        <v>0.008031013848899834</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007567454080027682</v>
+        <v>0.02523728381336285</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009327101996819093</v>
+        <v>0.03260612575753255</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3111241201594461</v>
+        <v>0.580800010828918</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3111241201594461</v>
+        <v>0.580800010828918</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_30.fasta</t>
+          <t>label_UMGS56_27.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02409626434791778</v>
+        <v>0.02117814273585962</v>
       </c>
       <c r="C17" t="n">
-        <v>2.221826580558386e-14</v>
+        <v>0.01102941312027015</v>
       </c>
       <c r="D17" t="n">
-        <v>2.221826580558386e-14</v>
+        <v>0.01102941312027015</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2431494792651567</v>
+        <v>0.2366483595391073</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002719943358225096</v>
+        <v>0.0009528630859351705</v>
       </c>
       <c r="G17" t="n">
-        <v>2.221826580558386e-14</v>
+        <v>0.006477574794451486</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01979738355638082</v>
+        <v>0.04814591265147614</v>
       </c>
       <c r="I17" t="n">
-        <v>0.006508955867647013</v>
+        <v>0.01102941312027015</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7037279736046058</v>
+        <v>0.6535089078323598</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7037279736046058</v>
+        <v>0.6535089078323598</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1875,38 +1791,38 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_34.fasta</t>
+          <t>label_UMGS56_38.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0154073079338857</v>
+        <v>0.01438702148432479</v>
       </c>
       <c r="C18" t="n">
-        <v>2.227967026278073e-14</v>
+        <v>2.238324302517773e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>2.227967026278073e-14</v>
+        <v>2.238324302517773e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1715948670079445</v>
+        <v>0.1767550620041022</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009918996657594921</v>
+        <v>0.03673136975805816</v>
       </c>
       <c r="G18" t="n">
-        <v>2.227967026278073e-14</v>
+        <v>0.00768096137593354</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03101118001793622</v>
+        <v>0.05629777212016633</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005183230824748422</v>
+        <v>2.238324302517773e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7668844175578234</v>
+        <v>0.7081478132573479</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7668844175578234</v>
+        <v>0.7081478132573479</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1917,38 +1833,38 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_4.fasta</t>
+          <t>label_UMGS56_6.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02160281067761297</v>
+        <v>0.0205709752150549</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2280054265013745</v>
+        <v>0.08024890436992099</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2280054265013745</v>
+        <v>0.08024890436992099</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3167685951764751</v>
+        <v>0.2571207077155666</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004977952967345154</v>
+        <v>0.00283659287255074</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004976910531030603</v>
+        <v>0.01486882199198636</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006122428747002588</v>
+        <v>0.01747845724039631</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008931817069720276</v>
+        <v>0.08024890436992099</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1806086318280643</v>
+        <v>0.4463777318546822</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3167685951764751</v>
+        <v>0.4463777318546822</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1959,80 +1875,80 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_41.fasta</t>
+          <t>label_UMGS56_1.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01937162411374645</v>
+        <v>0.0237382589576306</v>
       </c>
       <c r="C20" t="n">
-        <v>2.22216096436229e-14</v>
+        <v>0.004762034711184053</v>
       </c>
       <c r="D20" t="n">
-        <v>2.22216096436229e-14</v>
+        <v>0.120850416904133</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2609927627084219</v>
+        <v>0.3013022956872013</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02000966886782833</v>
+        <v>0.004963438442725829</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22216096436229e-14</v>
+        <v>0.120850416904133</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0147773433688574</v>
+        <v>0.006091013750260141</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008529666120564081</v>
+        <v>0.004762034711184049</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6763189348205152</v>
+        <v>0.412680089931548</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6763189348205152</v>
+        <v>0.412680089931548</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium amycolatum_A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_22.fasta</t>
+          <t>label_UMGS56_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02307671499259537</v>
+        <v>0.02436665892670431</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02993024431904064</v>
+        <v>0.004155131627934965</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02993024431904064</v>
+        <v>0.06810131165452077</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2860710423899483</v>
+        <v>0.2815109431491366</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001979771153101412</v>
+        <v>0.0046802071767844</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008423897923583471</v>
+        <v>0.06810131165452077</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0207545588516671</v>
+        <v>0.009381313346169189</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02993024431904064</v>
+        <v>0.004155131627934668</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5699032817319823</v>
+        <v>0.5355479908362943</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5699032817319823</v>
+        <v>0.5355479908362943</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2043,38 +1959,38 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_23.fasta</t>
+          <t>label_UMGS56_15.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02346428872149471</v>
+        <v>0.02272985038585714</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03260612575753255</v>
+        <v>0.003980133566342423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03260612575753255</v>
+        <v>0.0549636281291</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2624676972048401</v>
+        <v>0.2624516756392254</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002181328309886806</v>
+        <v>0.005158882829807409</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008031013848899834</v>
+        <v>0.0549636281291</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02523728381336285</v>
+        <v>0.005471738826382525</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03260612575753255</v>
+        <v>0.003980133566342128</v>
       </c>
       <c r="J22" t="n">
-        <v>0.580800010828918</v>
+        <v>0.5863003289278429</v>
       </c>
       <c r="K22" t="n">
-        <v>0.580800010828918</v>
+        <v>0.5863003289278429</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2085,38 +2001,38 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_27.fasta</t>
+          <t>label_UMGS56_16.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02117814273585962</v>
+        <v>0.02557047763923714</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01102941312027015</v>
+        <v>2.789759562377026e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01102941312027015</v>
+        <v>2.719210213021297e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2366483595391073</v>
+        <v>0.2706578620371791</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0009528630859351705</v>
+        <v>0.001981058848092898</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006477574794451486</v>
+        <v>2.719210213021297e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04814591265147614</v>
+        <v>0.004934724379614995</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01102941312027015</v>
+        <v>2.789759562377027e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6535089078323598</v>
+        <v>0.6968558770957658</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6535089078323598</v>
+        <v>0.6968558770957658</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2127,38 +2043,38 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_38.fasta</t>
+          <t>label_UMGS56_42.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01438702148432479</v>
+        <v>0.02154810920569351</v>
       </c>
       <c r="C24" t="n">
-        <v>2.238324302517773e-14</v>
+        <v>2.532515286504803e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>2.238324302517773e-14</v>
+        <v>2.494852477547515e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1767550620041022</v>
+        <v>0.2286287867961505</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03673136975805816</v>
+        <v>0.0370777358106924</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00768096137593354</v>
+        <v>2.494852477547515e-14</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05629777212016633</v>
+        <v>0.01207622982149328</v>
       </c>
       <c r="I24" t="n">
-        <v>2.238324302517773e-14</v>
+        <v>2.532515286504804e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7081478132573479</v>
+        <v>0.7006691383658699</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7081478132573479</v>
+        <v>0.7006691383658699</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2169,122 +2085,122 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_6.fasta</t>
+          <t>label_UMGS56_8.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0205709752150549</v>
+        <v>0.02252206622984991</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08024890436992099</v>
+        <v>0.00407346507442545</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08024890436992099</v>
+        <v>0.0590405990266697</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2571207077155666</v>
+        <v>0.2723296408472473</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00283659287255074</v>
+        <v>0.005504597903145224</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01486882199198636</v>
+        <v>0.0590405990266697</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01747845724039631</v>
+        <v>0.005316025198410962</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08024890436992099</v>
+        <v>0.004073465074425439</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4463777318546822</v>
+        <v>0.5680995416191564</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4463777318546822</v>
+        <v>0.5680995416191564</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_1.fasta</t>
+          <t>label_UMGS56_12.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0237382589576306</v>
+        <v>0.02884888275660941</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004762034711184053</v>
+        <v>0.03646779342940716</v>
       </c>
       <c r="D26" t="n">
-        <v>0.120850416904133</v>
+        <v>0.03646779342940716</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3013022956872013</v>
+        <v>0.1893917564312597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004963438442725829</v>
+        <v>0.003977970598516885</v>
       </c>
       <c r="G26" t="n">
-        <v>0.120850416904133</v>
+        <v>0.03646779342940716</v>
       </c>
       <c r="H26" t="n">
-        <v>0.006091013750260141</v>
+        <v>0.002591867486841825</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004762034711184049</v>
+        <v>0.002564978883561682</v>
       </c>
       <c r="J26" t="n">
-        <v>0.412680089931548</v>
+        <v>0.6632211635549891</v>
       </c>
       <c r="K26" t="n">
-        <v>0.412680089931548</v>
+        <v>0.6632211635549891</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>s__Corynebacterium amycolatum_A</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_10.fasta</t>
+          <t>label_UMGS56_13.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02436665892670431</v>
+        <v>0.03312077929978351</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004155131627934965</v>
+        <v>0.07592417885666852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06810131165452077</v>
+        <v>0.07592417885666852</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2815109431491366</v>
+        <v>0.1965122523787019</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0046802071767844</v>
+        <v>0.003607957680801915</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06810131165452077</v>
+        <v>0.07592417885666852</v>
       </c>
       <c r="H27" t="n">
-        <v>0.009381313346169189</v>
+        <v>0.003271843112818042</v>
       </c>
       <c r="I27" t="n">
-        <v>0.004155131627934668</v>
+        <v>0.003242432687452835</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5355479908362943</v>
+        <v>0.5324721982704362</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5355479908362943</v>
+        <v>0.5324721982704362</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2295,38 +2211,38 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_15.fasta</t>
+          <t>label_UMGS56_19.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02272985038585714</v>
+        <v>0.02828739231587517</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003980133566342423</v>
+        <v>2.273670475645763e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0549636281291</v>
+        <v>2.273670475645763e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2624516756392254</v>
+        <v>0.1953364371542401</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005158882829807409</v>
+        <v>0.005360876529592804</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0549636281291</v>
+        <v>2.273670475645763e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005471738826382525</v>
+        <v>0.0001094789560413848</v>
       </c>
       <c r="I28" t="n">
-        <v>0.003980133566342128</v>
+        <v>1.653750817704946e-11</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5863003289278429</v>
+        <v>0.7709058150276448</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5863003289278429</v>
+        <v>0.7709058150276448</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2337,80 +2253,80 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_16.fasta</t>
+          <t>label_UMGS56_2.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02557047763923714</v>
+        <v>0.034012551866928</v>
       </c>
       <c r="C29" t="n">
-        <v>2.789759562377026e-14</v>
+        <v>0.1242982522285744</v>
       </c>
       <c r="D29" t="n">
-        <v>2.719210213021297e-14</v>
+        <v>0.1242982522285744</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2706578620371791</v>
+        <v>0.3145114916362116</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001981058848092898</v>
+        <v>0.003598573490767737</v>
       </c>
       <c r="G29" t="n">
-        <v>2.719210213021297e-14</v>
+        <v>0.1242982522285744</v>
       </c>
       <c r="H29" t="n">
-        <v>0.004934724379614995</v>
+        <v>0.003532544371948261</v>
       </c>
       <c r="I29" t="n">
-        <v>2.789759562377027e-14</v>
+        <v>0.003532064941405797</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6968558770957658</v>
+        <v>0.2679180170070156</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6968558770957658</v>
+        <v>0.3145114916362116</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_42.fasta</t>
+          <t>label_UMGS56_24.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02154810920569351</v>
+        <v>0.02903170287155081</v>
       </c>
       <c r="C30" t="n">
-        <v>2.532515286504803e-14</v>
+        <v>2.274840960583046e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>2.494852477547515e-14</v>
+        <v>2.274840960583046e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2286287867961505</v>
+        <v>0.1683488648837009</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0370777358106924</v>
+        <v>0.006182169455662057</v>
       </c>
       <c r="G30" t="n">
-        <v>2.494852477547515e-14</v>
+        <v>2.274840960583046e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01207622982149328</v>
+        <v>0.000318639965225164</v>
       </c>
       <c r="I30" t="n">
-        <v>2.532515286504804e-14</v>
+        <v>2.906851933533749e-11</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7006691383658699</v>
+        <v>0.7961186227947242</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7006691383658699</v>
+        <v>0.7961186227947242</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2421,38 +2337,38 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_8.fasta</t>
+          <t>label_UMGS56_25.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02252206622984991</v>
+        <v>0.0312128053849013</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00407346507442545</v>
+        <v>0.04119143646730745</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0590405990266697</v>
+        <v>0.04119143646730745</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2723296408472473</v>
+        <v>0.1995609813314357</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005504597903145224</v>
+        <v>0.004241754636554802</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0590405990266697</v>
+        <v>0.04119143646730745</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005316025198410962</v>
+        <v>0.003208686258691099</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004073465074425439</v>
+        <v>0.002644325623912898</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5680995416191564</v>
+        <v>0.6355571373625818</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5680995416191564</v>
+        <v>0.6355571373625818</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2463,38 +2379,38 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_12.fasta</t>
+          <t>label_UMGS56_26.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02884888275660941</v>
+        <v>0.03051407019229984</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03646779342940716</v>
+        <v>0.03901326105426836</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03646779342940716</v>
+        <v>0.03901326105426836</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1893917564312597</v>
+        <v>0.2570047382571982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003977970598516885</v>
+        <v>0.004237022848710526</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03646779342940716</v>
+        <v>0.03901326105426836</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002591867486841825</v>
+        <v>0.002734841240007286</v>
       </c>
       <c r="I32" t="n">
-        <v>0.002564978883561682</v>
+        <v>0.002593063932579145</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6632211635549891</v>
+        <v>0.5858764803663998</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6632211635549891</v>
+        <v>0.5858764803663998</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2505,38 +2421,38 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_13.fasta</t>
+          <t>label_UMGS56_28.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03312077929978351</v>
+        <v>0.02863968010906052</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07592417885666852</v>
+        <v>2.246565727462004e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07592417885666852</v>
+        <v>2.246565727462004e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1965122523787019</v>
+        <v>0.168125322733387</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003607957680801915</v>
+        <v>0.01049443482492769</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07592417885666852</v>
+        <v>2.246565727462004e-14</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003271843112818042</v>
+        <v>0.001498119940452259</v>
       </c>
       <c r="I33" t="n">
-        <v>0.003242432687452835</v>
+        <v>3.840425933618245e-11</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5324721982704362</v>
+        <v>0.7912424423537009</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5324721982704362</v>
+        <v>0.7912424423537009</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2547,38 +2463,38 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_19.fasta</t>
+          <t>label_UMGS56_32.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02828739231587517</v>
+        <v>0.0207407841064043</v>
       </c>
       <c r="C34" t="n">
-        <v>2.273670475645763e-14</v>
+        <v>2.223334419895404e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>2.273670475645763e-14</v>
+        <v>2.223334419895404e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1953364371542401</v>
+        <v>0.1314168703989232</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005360876529592804</v>
+        <v>0.01170345688772929</v>
       </c>
       <c r="G34" t="n">
-        <v>2.273670475645763e-14</v>
+        <v>2.223334419895404e-14</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0001094789560413848</v>
+        <v>0.001342444893759828</v>
       </c>
       <c r="I34" t="n">
-        <v>1.653750817704946e-11</v>
+        <v>4.769663328715859e-11</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7709058150276448</v>
+        <v>0.8347964436654201</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7709058150276448</v>
+        <v>0.8347964436654201</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2589,80 +2505,80 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_2.fasta</t>
+          <t>label_UMGS56_33.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.034012551866928</v>
+        <v>0.02165412711051646</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1242982522285744</v>
+        <v>2.226477829766727e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1242982522285744</v>
+        <v>2.226477829766727e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3145114916362116</v>
+        <v>0.1308598760436299</v>
       </c>
       <c r="F35" t="n">
-        <v>0.003598573490767737</v>
+        <v>0.04402400830689801</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1242982522285744</v>
+        <v>2.226477829766727e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0.003532544371948261</v>
+        <v>0.009667399572839512</v>
       </c>
       <c r="I35" t="n">
-        <v>0.003532064941405797</v>
+        <v>1.142109943025069e-10</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2679180170070156</v>
+        <v>0.7937945888518384</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3145114916362116</v>
+        <v>0.7937945888518384</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_24.fasta</t>
+          <t>label_UMGS56_36.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02903170287155081</v>
+        <v>0.02411582342718084</v>
       </c>
       <c r="C36" t="n">
-        <v>2.274840960583046e-14</v>
+        <v>2.22318123109648e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>2.274840960583046e-14</v>
+        <v>2.22318123109648e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1683488648837009</v>
+        <v>0.1507430445035941</v>
       </c>
       <c r="F36" t="n">
-        <v>0.006182169455662057</v>
+        <v>0.01987186299514639</v>
       </c>
       <c r="G36" t="n">
-        <v>2.274840960583046e-14</v>
+        <v>2.22318123109648e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.000318639965225164</v>
+        <v>0.007338484487593424</v>
       </c>
       <c r="I36" t="n">
-        <v>2.906851933533749e-11</v>
+        <v>1.12591816270691e-10</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7961186227947242</v>
+        <v>0.7979307844738268</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7961186227947242</v>
+        <v>0.7979307844738268</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2673,38 +2589,38 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_25.fasta</t>
+          <t>label_UMGS56_39.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0312128053849013</v>
+        <v>0.03729874753398373</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04119143646730745</v>
+        <v>0.02230368947854979</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04119143646730745</v>
+        <v>0.02230368947854979</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1995609813314357</v>
+        <v>0.2390050131413111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004241754636554802</v>
+        <v>0.05943257762936818</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04119143646730745</v>
+        <v>0.02230368947854979</v>
       </c>
       <c r="H37" t="n">
-        <v>0.003208686258691099</v>
+        <v>0.001516898973663679</v>
       </c>
       <c r="I37" t="n">
-        <v>0.002644325623912898</v>
+        <v>0.001502274578398397</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6355571373625818</v>
+        <v>0.5943334197076255</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6355571373625818</v>
+        <v>0.5943334197076255</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2715,80 +2631,80 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_26.fasta</t>
+          <t>label_UMGS56_7.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03051407019229984</v>
+        <v>0.03208848111019973</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03901326105426836</v>
+        <v>0.08748757517134421</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03901326105426836</v>
+        <v>0.08748757517134421</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2570047382571982</v>
+        <v>0.2567229571067101</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004237022848710526</v>
+        <v>0.003483924658865815</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03901326105426836</v>
+        <v>0.08748757517134421</v>
       </c>
       <c r="H38" t="n">
-        <v>0.002734841240007286</v>
+        <v>0.003337880759715843</v>
       </c>
       <c r="I38" t="n">
-        <v>0.002593063932579145</v>
+        <v>0.003336788092035596</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5858764803663998</v>
+        <v>0.4385672427584402</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5858764803663998</v>
+        <v>0.4385672427584402</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_28.fasta</t>
+          <t>label_UMGS56_11.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02863968010906052</v>
+        <v>0.00737268162693377</v>
       </c>
       <c r="C39" t="n">
-        <v>2.246565727462004e-14</v>
+        <v>0.187722338599123</v>
       </c>
       <c r="D39" t="n">
-        <v>2.246565727462004e-14</v>
+        <v>0.00737268162693377</v>
       </c>
       <c r="E39" t="n">
-        <v>0.168125322733387</v>
+        <v>0.2025920406394958</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01049443482492769</v>
+        <v>0.007724128644315922</v>
       </c>
       <c r="G39" t="n">
-        <v>2.246565727462004e-14</v>
+        <v>0.007372681626933757</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001498119940452259</v>
+        <v>0.0103712280947176</v>
       </c>
       <c r="I39" t="n">
-        <v>3.840425933618245e-11</v>
+        <v>0.007678146465151281</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7912424423537009</v>
+        <v>0.5617940726763953</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7912424423537009</v>
+        <v>0.5617940726763953</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2799,38 +2715,38 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_32.fasta</t>
+          <t>label_UMGS56_17.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0207407841064043</v>
+        <v>4.229944931523449e-14</v>
       </c>
       <c r="C40" t="n">
-        <v>2.223334419895404e-14</v>
+        <v>3.966875711318537e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>2.223334419895404e-14</v>
+        <v>4.229944931523449e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1314168703989232</v>
+        <v>0.2689476308727587</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01170345688772929</v>
+        <v>0.001862875346761639</v>
       </c>
       <c r="G40" t="n">
-        <v>2.223334419895404e-14</v>
+        <v>4.229944931523445e-14</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001342444893759828</v>
+        <v>0.01153352081551562</v>
       </c>
       <c r="I40" t="n">
-        <v>4.769663328715859e-11</v>
+        <v>0.0008085038497385592</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8347964436654201</v>
+        <v>0.7168474691150588</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8347964436654201</v>
+        <v>0.7168474691150588</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2841,38 +2757,38 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_33.fasta</t>
+          <t>label_UMGS56_18.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02165412711051646</v>
+        <v>0.007132775516398659</v>
       </c>
       <c r="C41" t="n">
-        <v>2.226477829766727e-14</v>
+        <v>0.152837984630598</v>
       </c>
       <c r="D41" t="n">
-        <v>2.226477829766727e-14</v>
+        <v>0.007132775516398659</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1308598760436299</v>
+        <v>0.2027338233805414</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04402400830689801</v>
+        <v>0.007781327237977053</v>
       </c>
       <c r="G41" t="n">
-        <v>2.226477829766727e-14</v>
+        <v>0.007132775516398659</v>
       </c>
       <c r="H41" t="n">
-        <v>0.009667399572839512</v>
+        <v>0.01690849080638307</v>
       </c>
       <c r="I41" t="n">
-        <v>1.142109943025069e-10</v>
+        <v>0.007469632109636925</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7937945888518384</v>
+        <v>0.5908704152856674</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7937945888518384</v>
+        <v>0.5908704152856674</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2883,38 +2799,38 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_36.fasta</t>
+          <t>label_UMGS56_20.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02411582342718084</v>
+        <v>4.153346848397862e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>2.22318123109648e-14</v>
+        <v>3.90401531644425e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>2.22318123109648e-14</v>
+        <v>4.153346848397862e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1507430445035941</v>
+        <v>0.2690806455526363</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01987186299514639</v>
+        <v>0.001947544483996038</v>
       </c>
       <c r="G42" t="n">
-        <v>2.22318123109648e-14</v>
+        <v>4.153346848397873e-14</v>
       </c>
       <c r="H42" t="n">
-        <v>0.007338484487593424</v>
+        <v>0.01756778158953566</v>
       </c>
       <c r="I42" t="n">
-        <v>1.12591816270691e-10</v>
+        <v>0.0007275005254052831</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7979307844738268</v>
+        <v>0.7106765278482632</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7979307844738268</v>
+        <v>0.7106765278482632</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2925,38 +2841,38 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_39.fasta</t>
+          <t>label_UMGS56_21.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.03729874753398373</v>
+        <v>3.240306735485209e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02230368947854979</v>
+        <v>3.122281584263765e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02230368947854979</v>
+        <v>3.240306735485209e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2390050131413111</v>
+        <v>0.2421850043130432</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05943257762936818</v>
+        <v>0.00281532356313104</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02230368947854979</v>
+        <v>3.240306735485209e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>0.001516898973663679</v>
+        <v>0.0197427634578283</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001502274578398397</v>
+        <v>0.0006365084729240221</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5943334197076255</v>
+        <v>0.7346204001929451</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5943334197076255</v>
+        <v>0.7346204001929451</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2967,80 +2883,80 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_7.fasta</t>
+          <t>label_UMGS56_29.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03208848111019973</v>
+        <v>2.951375444032726e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08748757517134421</v>
+        <v>2.871002608377437e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08748757517134421</v>
+        <v>2.951375444032726e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2567229571067101</v>
+        <v>0.2342143065072474</v>
       </c>
       <c r="F44" t="n">
-        <v>0.003483924658865815</v>
+        <v>0.007731048704207536</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08748757517134421</v>
+        <v>2.951375444032727e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0.003337880759715843</v>
+        <v>0.05167241696740583</v>
       </c>
       <c r="I44" t="n">
-        <v>0.003336788092035596</v>
+        <v>0.0008721281091665567</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4385672427584402</v>
+        <v>0.7055100997118554</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4385672427584402</v>
+        <v>0.7055100997118554</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_11.fasta</t>
+          <t>label_UMGS56_3.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.00737268162693377</v>
+        <v>0.007413021418747123</v>
       </c>
       <c r="C45" t="n">
-        <v>0.187722338599123</v>
+        <v>0.2113196068121722</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00737268162693377</v>
+        <v>0.007413021418747123</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2025920406394958</v>
+        <v>0.2028066993680042</v>
       </c>
       <c r="F45" t="n">
-        <v>0.007724128644315922</v>
+        <v>0.007550653372939601</v>
       </c>
       <c r="G45" t="n">
-        <v>0.007372681626933757</v>
+        <v>0.007413021418747433</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0103712280947176</v>
+        <v>0.01054484640651484</v>
       </c>
       <c r="I45" t="n">
-        <v>0.007678146465151281</v>
+        <v>0.007632264840405517</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5617940726763953</v>
+        <v>0.5379068649437222</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5617940726763953</v>
+        <v>0.5379068649437222</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3051,38 +2967,38 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_17.fasta</t>
+          <t>label_UMGS56_31.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.229944931523449e-14</v>
+        <v>2.800181897948472e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>3.966875711318537e-14</v>
+        <v>2.73822280667026e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>4.229944931523449e-14</v>
+        <v>2.800181897948472e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2689476308727587</v>
+        <v>0.22683935396297</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001862875346761639</v>
+        <v>0.009293906457406083</v>
       </c>
       <c r="G46" t="n">
-        <v>4.229944931523445e-14</v>
+        <v>2.800181897948471e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01153352081551562</v>
+        <v>0.02629135352916953</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0008085038497385592</v>
+        <v>0.0008013427817746852</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7168474691150588</v>
+        <v>0.7367740432685683</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7168474691150588</v>
+        <v>0.7367740432685683</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3093,38 +3009,38 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_18.fasta</t>
+          <t>label_UMGS56_35.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.007132775516398659</v>
+        <v>2.22154229392641e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.152837984630598</v>
+        <v>2.22154229392641e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.007132775516398659</v>
+        <v>2.22154229392641e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2027338233805414</v>
+        <v>0.1935713209133663</v>
       </c>
       <c r="F47" t="n">
-        <v>0.007781327237977053</v>
+        <v>0.04088800485933032</v>
       </c>
       <c r="G47" t="n">
-        <v>0.007132775516398659</v>
+        <v>2.22154229392641e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01690849080638307</v>
+        <v>0.03898247980041604</v>
       </c>
       <c r="I47" t="n">
-        <v>0.007469632109636925</v>
+        <v>0.0007418862418180382</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5908704152856674</v>
+        <v>0.7258163081849804</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5908704152856674</v>
+        <v>0.7258163081849804</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3135,38 +3051,38 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_20.fasta</t>
+          <t>label_UMGS56_37.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.153346848397862e-14</v>
+        <v>2.221122163677972e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>3.90401531644425e-14</v>
+        <v>2.221122163677972e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>4.153346848397862e-14</v>
+        <v>2.221122163677972e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2690806455526363</v>
+        <v>0.195754962600713</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001947544483996038</v>
+        <v>0.03836496892929465</v>
       </c>
       <c r="G48" t="n">
-        <v>4.153346848397873e-14</v>
+        <v>2.221122163677972e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01756778158953566</v>
+        <v>0.04888174075981964</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0007275005254052831</v>
+        <v>0.0007196948042107955</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7106765278482632</v>
+        <v>0.716278632905873</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7106765278482632</v>
+        <v>0.716278632905873</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3177,38 +3093,38 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_21.fasta</t>
+          <t>label_UMGS56_40.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.240306735485209e-14</v>
+        <v>0.006812124914122166</v>
       </c>
       <c r="C49" t="n">
-        <v>3.122281584263765e-14</v>
+        <v>0.1584198147136661</v>
       </c>
       <c r="D49" t="n">
-        <v>3.240306735485209e-14</v>
+        <v>0.006812124914122166</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2421850043130432</v>
+        <v>0.2025887335603801</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00281532356313104</v>
+        <v>0.03856916607750322</v>
       </c>
       <c r="G49" t="n">
-        <v>3.240306735485209e-14</v>
+        <v>0.006812124914122151</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0197427634578283</v>
+        <v>0.01476725400024935</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0006365084729240221</v>
+        <v>0.007068474890142102</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7346204001929451</v>
+        <v>0.5581501820156927</v>
       </c>
       <c r="K49" t="n">
-        <v>0.7346204001929451</v>
+        <v>0.5581501820156927</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3219,38 +3135,38 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_29.fasta</t>
+          <t>label_UMGS56_5.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.951375444032726e-14</v>
+        <v>0.007422398224755934</v>
       </c>
       <c r="C50" t="n">
-        <v>2.871002608377437e-14</v>
+        <v>0.2064966639287119</v>
       </c>
       <c r="D50" t="n">
-        <v>2.951375444032726e-14</v>
+        <v>0.007422398224755934</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2342143065072474</v>
+        <v>0.2026361406090089</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007731048704207536</v>
+        <v>0.007531820089144214</v>
       </c>
       <c r="G50" t="n">
-        <v>2.951375444032727e-14</v>
+        <v>0.007422398224755938</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05167241696740583</v>
+        <v>0.009960204625306711</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0008721281091665567</v>
+        <v>0.007603020353914344</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7055100997118554</v>
+        <v>0.5435049557196462</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7055100997118554</v>
+        <v>0.5435049557196462</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3261,292 +3177,40 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_3.fasta</t>
+          <t>label_UMGS56_9.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.007413021418747123</v>
+        <v>0.007216446283362161</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2113196068121722</v>
+        <v>0.1693194126042412</v>
       </c>
       <c r="D51" t="n">
-        <v>0.007413021418747123</v>
+        <v>0.007216446283362161</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2028066993680042</v>
+        <v>0.2027634605533927</v>
       </c>
       <c r="F51" t="n">
-        <v>0.007550653372939601</v>
+        <v>0.007447265291909697</v>
       </c>
       <c r="G51" t="n">
-        <v>0.007413021418747433</v>
+        <v>0.007216446283362143</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01054484640651484</v>
+        <v>0.0170003919218611</v>
       </c>
       <c r="I51" t="n">
-        <v>0.007632264840405517</v>
+        <v>0.007409503755456508</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5379068649437222</v>
+        <v>0.5744106270230525</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5379068649437222</v>
+        <v>0.5744106270230525</v>
       </c>
       <c r="L51" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_31.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2.800181897948472e-14</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.73822280667026e-14</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.800181897948472e-14</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.22683935396297</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.009293906457406083</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2.800181897948471e-14</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.02629135352916953</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.0008013427817746852</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7367740432685683</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.7367740432685683</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_35.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2.22154229392641e-14</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2.22154229392641e-14</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.22154229392641e-14</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.1935713209133663</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.04088800485933032</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2.22154229392641e-14</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.03898247980041604</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.0007418862418180382</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.7258163081849804</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.7258163081849804</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_37.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2.221122163677972e-14</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2.221122163677972e-14</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.221122163677972e-14</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.195754962600713</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.03836496892929465</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2.221122163677972e-14</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.04888174075981964</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.0007196948042107955</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.716278632905873</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.716278632905873</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_40.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.006812124914122166</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.1584198147136661</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.006812124914122166</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.2025887335603801</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.03856916607750322</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.006812124914122151</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.01476725400024935</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.007068474890142102</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5581501820156927</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.5581501820156927</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_5.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.007422398224755934</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.2064966639287119</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.007422398224755934</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.2026361406090089</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.007531820089144214</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.007422398224755938</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.009960204625306711</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.007603020353914344</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5435049557196462</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.5435049557196462</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_9.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.007216446283362161</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.1693194126042412</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.007216446283362161</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.2027634605533927</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.007447265291909697</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.007216446283362143</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.0170003919218611</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.007409503755456508</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5744106270230525</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.5744106270230525</v>
-      </c>
-      <c r="L57" t="inlineStr">
         <is>
           <t>s__Corynebacterium sp900539985</t>
         </is>
@@ -3563,7 +3227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3678,80 +3342,80 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_1.fasta</t>
+          <t>label_GCF_900078305_0.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04680975220387748</v>
+        <v>0.05136377247940054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2646991580398317</v>
+        <v>0.106655446675755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2646991580398317</v>
+        <v>0.106655446675755</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3239018963845007</v>
+        <v>0.6024857704561171</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004866425889990852</v>
+        <v>0.004221507569262578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004835245728149846</v>
+        <v>0.003630885205017601</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004842914658301715</v>
+        <v>0.003619436867570121</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03677954288379713</v>
+        <v>0.106655446675755</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04856590617171866</v>
+        <v>0.014712287395367</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3239018963845007</v>
+        <v>0.6024857704561171</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium aurimucosum_E</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_4.fasta</t>
+          <t>label_GCF_900078305_10.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007933815398128647</v>
+        <v>0.01430521927580789</v>
       </c>
       <c r="C4" t="n">
-        <v>2.232868815421181e-14</v>
+        <v>2.235071350427882e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.232868815421181e-14</v>
+        <v>2.235071350427882e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1223100545351464</v>
+        <v>0.2029126852048956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8360308909275955</v>
+        <v>0.5647287593204703</v>
       </c>
       <c r="G4" t="n">
-        <v>2.232868815421181e-14</v>
+        <v>0.009161005599186582</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001258869844540081</v>
+        <v>0.01857532961828679</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004606649074756198</v>
+        <v>2.235071350427882e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02785972021976611</v>
+        <v>0.190317000981286</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8360308909275955</v>
+        <v>0.5647287593204703</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -3762,38 +3426,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_6.fasta</t>
+          <t>label_GCF_900078305_8.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006894096903704681</v>
+        <v>0.008724659712046544</v>
       </c>
       <c r="C5" t="n">
-        <v>2.23265936802393e-14</v>
+        <v>2.261560045351673e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.23265936802393e-14</v>
+        <v>2.261560045351673e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1220952143462478</v>
+        <v>0.1462898327467659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8357656075404951</v>
+        <v>0.7072830818297277</v>
       </c>
       <c r="G5" t="n">
-        <v>2.23265936802393e-14</v>
+        <v>0.003526378658871666</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001285847242363851</v>
+        <v>0.007437492252029126</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004009947936453685</v>
+        <v>2.261560045351673e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02994928603066794</v>
+        <v>0.1267385548004912</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8357656075404951</v>
+        <v>0.7072830818297277</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -3804,376 +3468,250 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_0.fasta</t>
+          <t>label_GCF_900078305_11.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05136377247940054</v>
+        <v>0.01131690338670963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.106655446675755</v>
+        <v>2.241195764116864e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.106655446675755</v>
+        <v>2.241195764116864e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6024857704561171</v>
+        <v>0.1626591357770008</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004221507569262578</v>
+        <v>0.6955902814566796</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003630885205017601</v>
+        <v>2.241195764116864e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003619436867570121</v>
+        <v>0.000296167845260147</v>
       </c>
       <c r="I6" t="n">
-        <v>0.106655446675755</v>
+        <v>2.241195764116864e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>0.014712287395367</v>
+        <v>0.1301375115342603</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6024857704561171</v>
+        <v>0.6955902814566796</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>s__Corynebacterium aurimucosum_E</t>
+          <t>s__Corynebacterium bouchesdurhonense</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_10.fasta</t>
+          <t>label_GCF_900078305_2.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01430521927580789</v>
+        <v>0.01948406231378092</v>
       </c>
       <c r="C7" t="n">
-        <v>2.235071350427882e-14</v>
+        <v>0.004292393025419144</v>
       </c>
       <c r="D7" t="n">
-        <v>2.235071350427882e-14</v>
+        <v>0.1302122069000347</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2029126852048956</v>
+        <v>0.203423794225982</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5647287593204703</v>
+        <v>0.1529047455280717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009161005599186582</v>
+        <v>0.1302122069000347</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01857532961828679</v>
+        <v>0.007343121851260671</v>
       </c>
       <c r="I7" t="n">
-        <v>2.235071350427882e-14</v>
+        <v>0.004292393025418862</v>
       </c>
       <c r="J7" t="n">
-        <v>0.190317000981286</v>
+        <v>0.3478350762299974</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5647287593204703</v>
+        <v>0.3478350762299974</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>s__Corynebacterium bouchesdurhonense</t>
+          <t>s__Corynebacterium amycolatum_A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_8.fasta</t>
+          <t>label_GCF_900078305_5.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008724659712046544</v>
+        <v>0.02061195142679784</v>
       </c>
       <c r="C8" t="n">
-        <v>2.261560045351673e-14</v>
+        <v>0.003421403477394887</v>
       </c>
       <c r="D8" t="n">
-        <v>2.261560045351673e-14</v>
+        <v>0.07138611469819457</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1462898327467659</v>
+        <v>0.1881227078081708</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7072830818297277</v>
+        <v>0.0835754374545775</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003526378658871666</v>
+        <v>0.07138611469819457</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007437492252029126</v>
+        <v>0.0536476622137808</v>
       </c>
       <c r="I8" t="n">
-        <v>2.261560045351673e-14</v>
+        <v>0.003421403477394894</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1267385548004912</v>
+        <v>0.5044272047454942</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7072830818297277</v>
+        <v>0.5044272047454942</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>s__Corynebacterium bouchesdurhonense</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_11.fasta</t>
+          <t>label_GCF_900078305_9.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01131690338670963</v>
+        <v>0.02010530189081709</v>
       </c>
       <c r="C9" t="n">
-        <v>2.241195764116864e-14</v>
+        <v>0.002921971018818569</v>
       </c>
       <c r="D9" t="n">
-        <v>2.241195764116864e-14</v>
+        <v>0.0487210044123971</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1626591357770008</v>
+        <v>0.1978213853363264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6955902814566796</v>
+        <v>0.09876813877097548</v>
       </c>
       <c r="G9" t="n">
-        <v>2.241195764116864e-14</v>
+        <v>0.0487210044123971</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000296167845260147</v>
+        <v>0.030289870420554</v>
       </c>
       <c r="I9" t="n">
-        <v>2.241195764116864e-14</v>
+        <v>0.002921971018818061</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1301375115342603</v>
+        <v>0.5497293527188962</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6955902814566796</v>
+        <v>0.5497293527188962</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>s__Corynebacterium bouchesdurhonense</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_2.fasta</t>
+          <t>label_GCF_900078305_7.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01948406231378092</v>
+        <v>0.01127159053078883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004292393025419144</v>
+        <v>2.240266399776209e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1302122069000347</v>
+        <v>2.240266399776209e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.203423794225982</v>
+        <v>0.1032502329745414</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1529047455280717</v>
+        <v>0.8245321325829094</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1302122069000347</v>
+        <v>2.240266399776209e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007343121851260671</v>
+        <v>3.795928179662e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004292393025418862</v>
+        <v>7.238761010466694e-10</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3478350762299974</v>
+        <v>0.0609422472596373</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3478350762299974</v>
+        <v>0.8245321325829094</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>s__Corynebacterium amycolatum_A</t>
+          <t>s__Corynebacterium bouchesdurhonense</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_5.fasta</t>
+          <t>label_GCF_900078305_3.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02061195142679784</v>
+        <v>2.237171359859026e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003421403477394887</v>
+        <v>2.237171359859026e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07138611469819457</v>
+        <v>2.237171359859026e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1881227078081708</v>
+        <v>0.1010939205872035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0835754374545775</v>
+        <v>0.8093420616279964</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07138611469819457</v>
+        <v>2.237171359859026e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0536476622137808</v>
+        <v>0.001214367353430837</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003421403477394894</v>
+        <v>0.001573106680864988</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5044272047454942</v>
+        <v>0.08677654375041478</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5044272047454942</v>
+        <v>0.8093420616279964</v>
       </c>
       <c r="L11" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900078305_9.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.02010530189081709</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002921971018818569</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0487210044123971</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1978213853363264</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.09876813877097548</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0487210044123971</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.030289870420554</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.002921971018818061</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5497293527188962</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.5497293527188962</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900078305_7.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.01127159053078883</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.240266399776209e-14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.240266399776209e-14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1032502329745414</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.8245321325829094</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.240266399776209e-14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.795928179662e-06</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.238761010466694e-10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0609422472596373</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.8245321325829094</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium bouchesdurhonense</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900078305_3.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.237171359859026e-14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.237171359859026e-14</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.237171359859026e-14</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1010939205872035</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8093420616279964</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.237171359859026e-14</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.001214367353430837</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.001573106680864988</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.08677654375041478</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.8093420616279964</v>
-      </c>
-      <c r="L14" t="inlineStr">
         <is>
           <t>s__Corynebacterium bouchesdurhonense</t>
         </is>
@@ -4355,7 +3893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4470,164 +4008,164 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_6.fasta</t>
+          <t>label_15841_8_88_0.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009869175495767419</v>
+        <v>0.02084833106960575</v>
       </c>
       <c r="C3" t="n">
-        <v>2.246392027039551e-14</v>
+        <v>2.226248703825241e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.246392027039551e-14</v>
+        <v>2.226248703825241e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09724324791737445</v>
+        <v>0.1524635579414983</v>
       </c>
       <c r="F3" t="n">
-        <v>9.546519713344316e-05</v>
+        <v>0.0002125273659247348</v>
       </c>
       <c r="G3" t="n">
-        <v>2.246392027039551e-14</v>
+        <v>0.006637895424798145</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7345817405842884</v>
+        <v>0.4742358380214226</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002744686667692035</v>
+        <v>2.226248703825241e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1554656841376768</v>
+        <v>0.3456018501766837</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7345817405842884</v>
+        <v>0.4742358380214226</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>s__Corynebacterium propinquum</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_7.fasta</t>
+          <t>label_15841_8_88_1.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00995060610208996</v>
+        <v>0.02416524544852757</v>
       </c>
       <c r="C4" t="n">
-        <v>2.246171512443146e-14</v>
+        <v>2.221118011087374e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.246171512443146e-14</v>
+        <v>2.221118011087374e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1054754695043197</v>
+        <v>0.1761052759955499</v>
       </c>
       <c r="F4" t="n">
-        <v>9.239706661892624e-05</v>
+        <v>0.0001626415868434367</v>
       </c>
       <c r="G4" t="n">
-        <v>2.246171512443146e-14</v>
+        <v>0.006903566471564146</v>
       </c>
       <c r="H4" t="n">
-        <v>0.704281438311232</v>
+        <v>0.4271686808871646</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003056395154745431</v>
+        <v>2.221118011087374e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1771436938609265</v>
+        <v>0.3654945896102838</v>
       </c>
       <c r="K4" t="n">
-        <v>0.704281438311232</v>
+        <v>0.4271686808871646</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>s__Corynebacterium propinquum</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_0.fasta</t>
+          <t>label_15841_8_88_12.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02084833106960575</v>
+        <v>0.01601022842524749</v>
       </c>
       <c r="C5" t="n">
-        <v>2.226248703825241e-14</v>
+        <v>2.242314914418486e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.226248703825241e-14</v>
+        <v>2.242314914418486e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1524635579414983</v>
+        <v>0.1663432163022711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002125273659247348</v>
+        <v>0.05721181453281584</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006637895424798145</v>
+        <v>0.01017179176517589</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4742358380214226</v>
+        <v>0.1367241160432263</v>
       </c>
       <c r="I5" t="n">
-        <v>2.226248703825241e-14</v>
+        <v>2.242314914418486e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3456018501766837</v>
+        <v>0.613538832931196</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4742358380214226</v>
+        <v>0.613538832931196</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_1.fasta</t>
+          <t>label_15841_8_88_2.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02416524544852757</v>
+        <v>0.02253177877031969</v>
       </c>
       <c r="C6" t="n">
-        <v>2.221118011087374e-14</v>
+        <v>2.227140792541294e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.221118011087374e-14</v>
+        <v>2.227140792541294e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1761052759955499</v>
+        <v>0.1662380630347832</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001626415868434367</v>
+        <v>0.0001741679797493954</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006903566471564146</v>
+        <v>0.006459358773096532</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4271686808871646</v>
+        <v>0.4470534886482406</v>
       </c>
       <c r="I6" t="n">
-        <v>2.221118011087374e-14</v>
+        <v>2.227140792541294e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3654945896102838</v>
+        <v>0.3575431427937438</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4271686808871646</v>
+        <v>0.4470534886482406</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -4638,38 +4176,38 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_12.fasta</t>
+          <t>label_15841_8_88_11.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01601022842524749</v>
+        <v>0.01638156989841216</v>
       </c>
       <c r="C7" t="n">
-        <v>2.242314914418486e-14</v>
+        <v>2.242003004291634e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.242314914418486e-14</v>
+        <v>2.242003004291634e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1663432163022711</v>
+        <v>0.2090347696217516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05721181453281584</v>
+        <v>0.001325166869472077</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01017179176517589</v>
+        <v>2.242003004291634e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1367241160432263</v>
+        <v>0.2982874948780386</v>
       </c>
       <c r="I7" t="n">
-        <v>2.242314914418486e-14</v>
+        <v>2.242003004291634e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>0.613538832931196</v>
+        <v>0.474970998732236</v>
       </c>
       <c r="K7" t="n">
-        <v>0.613538832931196</v>
+        <v>0.474970998732236</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -4680,122 +4218,122 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_2.fasta</t>
+          <t>label_15841_8_88_4.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02253177877031969</v>
+        <v>0.007898129166494574</v>
       </c>
       <c r="C8" t="n">
-        <v>2.227140792541294e-14</v>
+        <v>2.267870459556067e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.227140792541294e-14</v>
+        <v>2.267870459556067e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1662380630347832</v>
+        <v>0.09238952216219999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001741679797493954</v>
+        <v>0.0003737334465230094</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006459358773096532</v>
+        <v>2.267870459556067e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4470534886482406</v>
+        <v>0.6134756802029626</v>
       </c>
       <c r="I8" t="n">
-        <v>2.227140792541294e-14</v>
+        <v>2.267870459556067e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3575431427937438</v>
+        <v>0.2858629350217291</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4470534886482406</v>
+        <v>0.6134756802029626</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium propinquum</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_11.fasta</t>
+          <t>label_15841_8_88_5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01638156989841216</v>
+        <v>0.01010021030104947</v>
       </c>
       <c r="C9" t="n">
-        <v>2.242003004291634e-14</v>
+        <v>2.266336418623763e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.242003004291634e-14</v>
+        <v>2.266336418623763e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2090347696217516</v>
+        <v>0.1273790898383561</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001325166869472077</v>
+        <v>0.0002623151033524315</v>
       </c>
       <c r="G9" t="n">
-        <v>2.242003004291634e-14</v>
+        <v>2.266336418623763e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2982874948780386</v>
+        <v>0.5719558976329921</v>
       </c>
       <c r="I9" t="n">
-        <v>2.242003004291634e-14</v>
+        <v>2.266336418623763e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>0.474970998732236</v>
+        <v>0.2903024871241592</v>
       </c>
       <c r="K9" t="n">
-        <v>0.474970998732236</v>
+        <v>0.5719558976329921</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium propinquum</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_4.fasta</t>
+          <t>label_15841_8_88_8.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007898129166494574</v>
+        <v>0.009143465298360865</v>
       </c>
       <c r="C10" t="n">
-        <v>2.267870459556067e-14</v>
+        <v>2.271574627084661e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.267870459556067e-14</v>
+        <v>2.271574627084661e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09238952216219999</v>
+        <v>0.1153528350393386</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0003737334465230094</v>
+        <v>0.0003969813580502809</v>
       </c>
       <c r="G10" t="n">
-        <v>2.267870459556067e-14</v>
+        <v>2.271574627084661e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6134756802029626</v>
+        <v>0.5753556910148506</v>
       </c>
       <c r="I10" t="n">
-        <v>2.267870459556067e-14</v>
+        <v>2.271574627084661e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2858629350217291</v>
+        <v>0.2997510272893087</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6134756802029626</v>
+        <v>0.5753556910148506</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -4806,38 +4344,38 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_5.fasta</t>
+          <t>label_15841_8_88_9.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01010021030104947</v>
+        <v>0.008711562921255045</v>
       </c>
       <c r="C11" t="n">
-        <v>2.266336418623763e-14</v>
+        <v>2.274763420838874e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.266336418623763e-14</v>
+        <v>2.274763420838874e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1273790898383561</v>
+        <v>0.1189556153669007</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002623151033524315</v>
+        <v>0.0005241932519260832</v>
       </c>
       <c r="G11" t="n">
-        <v>2.266336418623763e-14</v>
+        <v>2.274763420838874e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5719558976329921</v>
+        <v>0.6051301432811522</v>
       </c>
       <c r="I11" t="n">
-        <v>2.266336418623763e-14</v>
+        <v>2.274763420838874e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2903024871241592</v>
+        <v>0.2666784851786749</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5719558976329921</v>
+        <v>0.6051301432811522</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -4848,80 +4386,80 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_8.fasta</t>
+          <t>label_15841_8_88_13.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.009143465298360865</v>
+        <v>0.02814394536439827</v>
       </c>
       <c r="C12" t="n">
-        <v>2.271574627084661e-14</v>
+        <v>0.07585766790895059</v>
       </c>
       <c r="D12" t="n">
-        <v>2.271574627084661e-14</v>
+        <v>0.07585766790895059</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1153528350393386</v>
+        <v>0.309341032255888</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0003969813580502809</v>
+        <v>0.1484071464966225</v>
       </c>
       <c r="G12" t="n">
-        <v>2.271574627084661e-14</v>
+        <v>0.07585766790895059</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5753556910148506</v>
+        <v>0.002797745052966598</v>
       </c>
       <c r="I12" t="n">
-        <v>2.271574627084661e-14</v>
+        <v>0.002797745010723278</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2997510272893087</v>
+        <v>0.2809393820925496</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5753556910148506</v>
+        <v>0.309341032255888</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>s__Corynebacterium propinquum</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_9.fasta</t>
+          <t>label_15841_8_88_3.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008711562921255045</v>
+        <v>0.011779767212405</v>
       </c>
       <c r="C13" t="n">
-        <v>2.274763420838874e-14</v>
+        <v>2.235842552211492e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>2.274763420838874e-14</v>
+        <v>2.235842552211492e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1189556153669007</v>
+        <v>0.03703117509569998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0005241932519260832</v>
+        <v>0.0001997708587895686</v>
       </c>
       <c r="G13" t="n">
-        <v>2.274763420838874e-14</v>
+        <v>2.235842552211492e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6051301432811522</v>
+        <v>0.840901039354836</v>
       </c>
       <c r="I13" t="n">
-        <v>2.274763420838874e-14</v>
+        <v>1.018242693173023e-11</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2666784851786749</v>
+        <v>0.1100882474680199</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6051301432811522</v>
+        <v>0.840901039354836</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -4932,124 +4470,40 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_13.fasta</t>
+          <t>label_15841_8_88_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02814394536439827</v>
+        <v>2.252208745017059e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07585766790895059</v>
+        <v>2.252208745017059e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07585766790895059</v>
+        <v>2.252208745017059e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.309341032255888</v>
+        <v>0.1193028350700397</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1484071464966225</v>
+        <v>0.001502554300175849</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07585766790895059</v>
+        <v>2.252208745017059e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002797745052966598</v>
+        <v>0.5544095138265959</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002797745010723278</v>
+        <v>0.0002879163246110731</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2809393820925496</v>
+        <v>0.3244971804784875</v>
       </c>
       <c r="K14" t="n">
-        <v>0.309341032255888</v>
+        <v>0.5544095138265959</v>
       </c>
       <c r="L14" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium ammoniagenes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_15841_8_88_3.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.011779767212405</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.235842552211492e-14</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.235842552211492e-14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.03703117509569998</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0001997708587895686</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.235842552211492e-14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.840901039354836</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.018242693173023e-11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1100882474680199</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.840901039354836</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium propinquum</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_15841_8_88_10.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.252208745017059e-14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.252208745017059e-14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.252208745017059e-14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1193028350700397</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.001502554300175849</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.252208745017059e-14</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.5544095138265959</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.0002879163246110731</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3244971804784875</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.5544095138265959</v>
-      </c>
-      <c r="L16" t="inlineStr">
         <is>
           <t>s__Corynebacterium propinquum</t>
         </is>
@@ -5315,7 +4769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6186,122 +5640,122 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_0.fasta</t>
+          <t>label_UMGS194_11.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02735680147600297</v>
+        <v>0.02242894747500353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1973145895525189</v>
+        <v>0.03961178078998807</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1973145895525189</v>
+        <v>0.03961178078998807</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3137400126434033</v>
+        <v>0.2753353776481973</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004867373814517629</v>
+        <v>0.002315886305381388</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004860175130960767</v>
+        <v>0.008696023315234296</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006399639568229032</v>
+        <v>0.0479215920781864</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008963780622939028</v>
+        <v>0.03961178078998807</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2391830376389094</v>
+        <v>0.5244668308080329</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3137400126434033</v>
+        <v>0.5244668308080329</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_13.fasta</t>
+          <t>label_UMGS194_18.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01940396199555525</v>
+        <v>0.02033845546361003</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09158652464798789</v>
+        <v>0.02346363097463557</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09158652464798789</v>
+        <v>0.02346363097463557</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2845649110296541</v>
+        <v>0.2638806287221436</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004885218319888004</v>
+        <v>0.002588763220833947</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004337991764674916</v>
+        <v>0.009939695111547863</v>
       </c>
       <c r="H22" t="n">
-        <v>0.009578795780359072</v>
+        <v>0.03151350611102635</v>
       </c>
       <c r="I22" t="n">
-        <v>0.009456095734608282</v>
+        <v>0.02346363097463557</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4845999760792845</v>
+        <v>0.6013480584469315</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4845999760792845</v>
+        <v>0.6013480584469315</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_19.fasta</t>
+          <t>label_UMGS194_20.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02822142943865553</v>
+        <v>0.0226711005729814</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06425139672160778</v>
+        <v>0.02668131058467869</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06425139672160778</v>
+        <v>0.02668131058467869</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2539059255925377</v>
+        <v>0.2628217131026069</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003956350963827868</v>
+        <v>0.00223763133581294</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003664744403008018</v>
+        <v>0.008665823009680157</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03275575541678254</v>
+        <v>0.04236654920327936</v>
       </c>
       <c r="I23" t="n">
-        <v>0.008669808462565357</v>
+        <v>0.02668131058467869</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5403231922794074</v>
+        <v>0.5811932510216032</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5403231922794074</v>
+        <v>0.5811932510216032</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -6312,122 +5766,122 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_2.fasta</t>
+          <t>label_UMGS194_22.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01619889660819676</v>
+        <v>0.02109910354319681</v>
       </c>
       <c r="C24" t="n">
-        <v>0.183432250842673</v>
+        <v>0.02472161895204402</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183432250842673</v>
+        <v>0.02472161895204402</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2958313669154647</v>
+        <v>0.2549782510464239</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004897537493957327</v>
+        <v>0.002151239404158338</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004874777067272965</v>
+        <v>0.01253257119242589</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007494467663503086</v>
+        <v>0.02124729780553158</v>
       </c>
       <c r="I24" t="n">
-        <v>0.009192633629049981</v>
+        <v>0.02472161895204402</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2946458189372092</v>
+        <v>0.6138266801521315</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2958313669154647</v>
+        <v>0.6138266801521315</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_25.fasta</t>
+          <t>label_UMGS194_3.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02136329113892376</v>
+        <v>0.02200059204093796</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02375366823037832</v>
+        <v>0.06480167800354786</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02375366823037832</v>
+        <v>0.06480167800354786</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2651470757979013</v>
+        <v>0.3196190903897749</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003294897384144012</v>
+        <v>0.002770878370809865</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002024035705811981</v>
+        <v>0.01418045068990606</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02703798761304109</v>
+        <v>0.01051662463319174</v>
       </c>
       <c r="I25" t="n">
-        <v>0.007172319823468672</v>
+        <v>0.06480167800354786</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6264530560759526</v>
+        <v>0.4365073298647358</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6264530560759526</v>
+        <v>0.4365073298647358</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_26.fasta</t>
+          <t>label_UMGS194_30.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02106056809067986</v>
+        <v>0.01906083386030646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03505714239984983</v>
+        <v>0.0130194631039877</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03505714239984983</v>
+        <v>0.0130194631039877</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2535411670938824</v>
+        <v>0.2616012493661221</v>
       </c>
       <c r="F26" t="n">
-        <v>0.005094098038535141</v>
+        <v>0.002750562627928701</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002816604280592434</v>
+        <v>0.01335773332803198</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01357121736695864</v>
+        <v>0.03475916434622227</v>
       </c>
       <c r="I26" t="n">
-        <v>0.008452262060889762</v>
+        <v>0.0130194631039877</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6253497982687621</v>
+        <v>0.6294120671594253</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6253497982687621</v>
+        <v>0.6294120671594253</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -6438,38 +5892,38 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_29.fasta</t>
+          <t>label_UMGS194_36.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02316905816601282</v>
+        <v>0.02218467271245896</v>
       </c>
       <c r="C27" t="n">
-        <v>2.372393201898372e-14</v>
+        <v>2.295268649346405e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>2.372393201898372e-14</v>
+        <v>2.295268649346405e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2582615368834153</v>
+        <v>0.2741786209321985</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00109217378184853</v>
+        <v>0.005476611531323895</v>
       </c>
       <c r="G27" t="n">
-        <v>2.391873867646193e-14</v>
+        <v>0.0110063997224724</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02793907247138404</v>
+        <v>0.0479389819112116</v>
       </c>
       <c r="I27" t="n">
-        <v>0.007253298534953692</v>
+        <v>2.295268649346405e-14</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6822848601623143</v>
+        <v>0.6392147131902658</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6822848601623143</v>
+        <v>0.6392147131902658</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -6480,38 +5934,38 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_31.fasta</t>
+          <t>label_UMGS194_39.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02819257996253142</v>
+        <v>0.01864143511171893</v>
       </c>
       <c r="C28" t="n">
-        <v>2.432562394044735e-14</v>
+        <v>2.224741123362236e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>2.432562394044735e-14</v>
+        <v>2.224741123362236e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2747235743299136</v>
+        <v>0.2272684378483601</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001363740388029136</v>
+        <v>0.009586690768731318</v>
       </c>
       <c r="G28" t="n">
-        <v>2.46008570184717e-14</v>
+        <v>0.01165794127852307</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01889015430120647</v>
+        <v>0.04827524434369647</v>
       </c>
       <c r="I28" t="n">
-        <v>0.007564483933445917</v>
+        <v>2.224741123362236e-14</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6692654670848003</v>
+        <v>0.6845702506489033</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6692654670848003</v>
+        <v>0.6845702506489033</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -6522,122 +5976,122 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_33.fasta</t>
+          <t>label_UMGS194_4.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0213797096278727</v>
+        <v>0.02381938335680588</v>
       </c>
       <c r="C29" t="n">
-        <v>2.223789803079958e-14</v>
+        <v>0.06840795896102864</v>
       </c>
       <c r="D29" t="n">
-        <v>2.223789803079958e-14</v>
+        <v>0.06840795896102864</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2124362472158169</v>
+        <v>0.2986531955938496</v>
       </c>
       <c r="F29" t="n">
-        <v>0.004021258882266127</v>
+        <v>0.002782837417702585</v>
       </c>
       <c r="G29" t="n">
-        <v>2.223789803079958e-14</v>
+        <v>0.008510403124529208</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04106365394268908</v>
+        <v>0.01539062876111702</v>
       </c>
       <c r="I29" t="n">
-        <v>0.006283995982488398</v>
+        <v>0.06840795896102864</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7148151343488</v>
+        <v>0.4456196748629098</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7148151343488</v>
+        <v>0.4456196748629098</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_37.fasta</t>
+          <t>label_UMGS194_5.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0187145977761126</v>
+        <v>0.02514949326208184</v>
       </c>
       <c r="C30" t="n">
-        <v>2.224192478959099e-14</v>
+        <v>0.06713716667025971</v>
       </c>
       <c r="D30" t="n">
-        <v>2.224192478959099e-14</v>
+        <v>0.06713716667025971</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2080494199791875</v>
+        <v>0.310951479789557</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003868246984222935</v>
+        <v>0.00275084650493928</v>
       </c>
       <c r="G30" t="n">
-        <v>2.224192478959099e-14</v>
+        <v>0.007496277782469802</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01386906408892936</v>
+        <v>0.02266798176463495</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00559657084130296</v>
+        <v>0.06713716667025971</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7499021003301779</v>
+        <v>0.4295724208855381</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7499021003301779</v>
+        <v>0.4295724208855381</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_40.fasta</t>
+          <t>label_UMGS194_51.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01894146340774016</v>
+        <v>0.01680461656729624</v>
       </c>
       <c r="C31" t="n">
-        <v>2.225099651660734e-14</v>
+        <v>2.229161954910717e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>2.225099651660734e-14</v>
+        <v>2.229161954910717e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1911693907679497</v>
+        <v>0.2050099297772659</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005216303575810091</v>
+        <v>0.01454134464137164</v>
       </c>
       <c r="G31" t="n">
-        <v>2.225099651660734e-14</v>
+        <v>0.009420367062124173</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0261255313493172</v>
+        <v>0.04977930508687644</v>
       </c>
       <c r="I31" t="n">
-        <v>0.005673532083099194</v>
+        <v>2.229161954910717e-14</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7528737788160168</v>
+        <v>0.7044444368649988</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7528737788160168</v>
+        <v>0.7044444368649988</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -6648,38 +6102,38 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_45.fasta</t>
+          <t>label_UMGS194_54.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01417611248898979</v>
+        <v>0.01494316626773432</v>
       </c>
       <c r="C32" t="n">
-        <v>2.230262474858612e-14</v>
+        <v>2.234317111285871e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>2.230262474858612e-14</v>
+        <v>2.234317111285871e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1695657491975664</v>
+        <v>0.1864320357458628</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01189877983836025</v>
+        <v>0.02157609854849463</v>
       </c>
       <c r="G32" t="n">
-        <v>2.230262474858612e-14</v>
+        <v>0.008705813802158424</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02357963700145142</v>
+        <v>0.05098569057487889</v>
       </c>
       <c r="I32" t="n">
-        <v>0.004529756882551791</v>
+        <v>2.234317111285871e-14</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7762499645910135</v>
+        <v>0.7173571950608038</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7762499645910135</v>
+        <v>0.7173571950608038</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -6690,38 +6144,38 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_47.fasta</t>
+          <t>label_UMGS194_58.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01719237291047021</v>
+        <v>0.01440297152620066</v>
       </c>
       <c r="C33" t="n">
-        <v>2.229910662333946e-14</v>
+        <v>2.234890826560318e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>2.229910662333946e-14</v>
+        <v>2.234890826560318e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1917618566007676</v>
+        <v>0.1766098035482498</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01572324141450975</v>
+        <v>0.02407352795836622</v>
       </c>
       <c r="G33" t="n">
-        <v>2.229910662333946e-14</v>
+        <v>0.008747980935503762</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05990915530075793</v>
+        <v>0.04920404133277017</v>
       </c>
       <c r="I33" t="n">
-        <v>0.006043102099874582</v>
+        <v>2.234890826560318e-14</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7093702716735529</v>
+        <v>0.7269616746988423</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7093702716735529</v>
+        <v>0.7269616746988423</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -6732,38 +6186,38 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_49.fasta</t>
+          <t>label_UMGS194_66.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01776620224149657</v>
+        <v>0.01564797513597444</v>
       </c>
       <c r="C34" t="n">
-        <v>2.226654818603818e-14</v>
+        <v>2.236288468110477e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>2.226654818603818e-14</v>
+        <v>2.236288468110477e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1944664758507868</v>
+        <v>0.1829708127682039</v>
       </c>
       <c r="F34" t="n">
-        <v>0.009247680548900445</v>
+        <v>0.05832111903932006</v>
       </c>
       <c r="G34" t="n">
-        <v>2.226654818603818e-14</v>
+        <v>0.008772998425234697</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03671792574689134</v>
+        <v>0.05128231705236395</v>
       </c>
       <c r="I34" t="n">
-        <v>0.006036601707299126</v>
+        <v>2.236288468110477e-14</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7357651139045589</v>
+        <v>0.6830047775788358</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7357651139045589</v>
+        <v>0.6830047775788358</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -6774,38 +6228,38 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_59.fasta</t>
+          <t>label_UMGS194_69.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01154135441433637</v>
+        <v>0.01542294399307053</v>
       </c>
       <c r="C35" t="n">
-        <v>2.229844005493205e-14</v>
+        <v>2.241479261925218e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>2.229844005493205e-14</v>
+        <v>2.241479261925218e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1524582466290572</v>
+        <v>0.1951068069122746</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01384796259888675</v>
+        <v>0.05704344140089564</v>
       </c>
       <c r="G35" t="n">
-        <v>2.229844005493205e-14</v>
+        <v>0.007526399395480347</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02676821479269159</v>
+        <v>0.05608890794193752</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00470968103574321</v>
+        <v>2.241479261925218e-14</v>
       </c>
       <c r="J35" t="n">
-        <v>0.790674540529218</v>
+        <v>0.6688115003562741</v>
       </c>
       <c r="K35" t="n">
-        <v>0.790674540529218</v>
+        <v>0.6688115003562741</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -6816,80 +6270,80 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_6.fasta</t>
+          <t>label_UMGS194_73.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02863150948621612</v>
+        <v>0.01462559484454673</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1396098821616163</v>
+        <v>2.242712665547448e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1396098821616163</v>
+        <v>2.242712665547448e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2809654844867649</v>
+        <v>0.1952952839743701</v>
       </c>
       <c r="F36" t="n">
-        <v>0.004655526818857129</v>
+        <v>0.04360800264919753</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004619171523191697</v>
+        <v>0.007051202527385505</v>
       </c>
       <c r="H36" t="n">
-        <v>0.008677134443018871</v>
+        <v>0.05367755336558603</v>
       </c>
       <c r="I36" t="n">
-        <v>0.009132850841779722</v>
+        <v>2.242712665547448e-14</v>
       </c>
       <c r="J36" t="n">
-        <v>0.384098558076939</v>
+        <v>0.6857423626388469</v>
       </c>
       <c r="K36" t="n">
-        <v>0.384098558076939</v>
+        <v>0.6857423626388469</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_61.fasta</t>
+          <t>label_UMGS194_78.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01221476316048034</v>
+        <v>0.0144966126880003</v>
       </c>
       <c r="C37" t="n">
-        <v>2.236841525623621e-14</v>
+        <v>2.232352431050097e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>2.236841525623621e-14</v>
+        <v>2.232352431050097e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1526561204642436</v>
+        <v>0.1929275988518856</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02809285322269848</v>
+        <v>0.02513424581146649</v>
       </c>
       <c r="G37" t="n">
-        <v>2.236841525623621e-14</v>
+        <v>0.008637502770616392</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03665447407130469</v>
+        <v>0.04227923740859135</v>
       </c>
       <c r="I37" t="n">
-        <v>0.004240075347246529</v>
+        <v>2.232352431050097e-14</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7661417137339592</v>
+        <v>0.716524802469373</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7661417137339592</v>
+        <v>0.716524802469373</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -6900,80 +6354,80 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_63.fasta</t>
+          <t>label_UMGS194_79.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.05172877991453773</v>
+        <v>0.01532574111285926</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1366270563829869</v>
+        <v>2.233700141846286e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1366270563829869</v>
+        <v>2.233700141846286e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2611405986157312</v>
+        <v>0.1939611311998635</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2064519535369513</v>
+        <v>0.03522339619255133</v>
       </c>
       <c r="G38" t="n">
-        <v>0.003686477257208064</v>
+        <v>0.008702959793674091</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04664639212461445</v>
+        <v>0.04526779047442972</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01063694751235375</v>
+        <v>2.233700141846286e-14</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1464547382726298</v>
+        <v>0.7015189812265552</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2611405986157312</v>
+        <v>0.7015189812265552</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_81.fasta</t>
+          <t>label_UMGS194_83.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0144954475165123</v>
+        <v>0.01604200033297819</v>
       </c>
       <c r="C39" t="n">
-        <v>2.42771440414984e-14</v>
+        <v>2.226508008882777e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>2.42771440414984e-14</v>
+        <v>2.226508008882777e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2925044844191929</v>
+        <v>0.2046136612350037</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001089131477159894</v>
+        <v>0.01240661387405334</v>
       </c>
       <c r="G39" t="n">
-        <v>2.453916523658035e-14</v>
+        <v>0.009420549965909117</v>
       </c>
       <c r="H39" t="n">
-        <v>0.007777124816317798</v>
+        <v>0.0357964952810244</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01254535057940144</v>
+        <v>2.226508008882777e-14</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6715884611913427</v>
+        <v>0.7217206793109644</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6715884611913427</v>
+        <v>0.7217206793109644</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -6984,38 +6438,38 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_82.fasta</t>
+          <t>label_UMGS194_90.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0138240514034475</v>
+        <v>0.01563485084574706</v>
       </c>
       <c r="C40" t="n">
-        <v>2.223453227802201e-14</v>
+        <v>2.231134969530046e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>2.223453227802201e-14</v>
+        <v>2.231134969530046e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1973335794017061</v>
+        <v>0.1711857631209029</v>
       </c>
       <c r="F40" t="n">
-        <v>0.009664749758002257</v>
+        <v>0.02803118173115805</v>
       </c>
       <c r="G40" t="n">
-        <v>2.223453227802201e-14</v>
+        <v>0.006616018568039397</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01284232627721644</v>
+        <v>0.04639313582175688</v>
       </c>
       <c r="I40" t="n">
-        <v>0.008226388625412156</v>
+        <v>2.231134969530046e-14</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7581089045341488</v>
+        <v>0.7321390499123288</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7581089045341488</v>
+        <v>0.7321390499123288</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -7026,38 +6480,38 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_86.fasta</t>
+          <t>label_UMGS194_91.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0302893360252606</v>
+        <v>0.01868707660134248</v>
       </c>
       <c r="C41" t="n">
-        <v>2.226529036079749e-14</v>
+        <v>2.223140614985625e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.226529036079749e-14</v>
+        <v>2.223140614985625e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2031967211472104</v>
+        <v>0.2384533900462026</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03790737661226681</v>
+        <v>0.01427690039743284</v>
       </c>
       <c r="G41" t="n">
-        <v>2.226529036079749e-14</v>
+        <v>0.007066869845248183</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08101815016798873</v>
+        <v>0.01709287829896049</v>
       </c>
       <c r="I41" t="n">
-        <v>0.007622495111843319</v>
+        <v>2.223140614985625e-14</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6399659209353632</v>
+        <v>0.7044228848107468</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6399659209353632</v>
+        <v>0.7044228848107468</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -7068,164 +6522,164 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_89.fasta</t>
+          <t>label_UMGS194_99.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01755169175494024</v>
+        <v>0.02117744680080863</v>
       </c>
       <c r="C42" t="n">
-        <v>2.224229950237291e-14</v>
+        <v>0.07208114080760611</v>
       </c>
       <c r="D42" t="n">
-        <v>2.224229950237291e-14</v>
+        <v>0.07208114080760611</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2457400901479122</v>
+        <v>0.2448573129706735</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003094889112236413</v>
+        <v>0.002966599904807402</v>
       </c>
       <c r="G42" t="n">
-        <v>2.224229950237291e-14</v>
+        <v>0.006584231693052188</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04664140148619712</v>
+        <v>0.01041715699716566</v>
       </c>
       <c r="I42" t="n">
-        <v>0.009370944834180966</v>
+        <v>0.07208114080760611</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6776009826644663</v>
+        <v>0.4977538292106743</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6776009826644663</v>
+        <v>0.4977538292106743</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_9.fasta</t>
+          <t>label_UMGS194_10.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02617183121577743</v>
+        <v>0.0212531258882964</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1171624919896502</v>
+        <v>0.003132282023529167</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1171624919896502</v>
+        <v>0.03920118898518109</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2931274077603608</v>
+        <v>0.2945978575961557</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004593381900955647</v>
+        <v>0.01981859842894727</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004530448711253547</v>
+        <v>0.03920118898518109</v>
       </c>
       <c r="H43" t="n">
-        <v>0.008365302047077227</v>
+        <v>0.005383014398148649</v>
       </c>
       <c r="I43" t="n">
-        <v>0.009208476689399676</v>
+        <v>0.003132282023529176</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4196781676958753</v>
+        <v>0.5742804616710315</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4196781676958753</v>
+        <v>0.5742804616710315</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_92.fasta</t>
+          <t>label_UMGS194_103.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0173819705114945</v>
+        <v>0.02108659647058225</v>
       </c>
       <c r="C44" t="n">
-        <v>2.402218704573044e-14</v>
+        <v>0.004455175936587144</v>
       </c>
       <c r="D44" t="n">
-        <v>2.402218704573044e-14</v>
+        <v>0.1365135366369998</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2397503908903121</v>
+        <v>0.2830421939108993</v>
       </c>
       <c r="F44" t="n">
-        <v>0.007091790459560764</v>
+        <v>0.05131426929484705</v>
       </c>
       <c r="G44" t="n">
-        <v>2.42578721152107e-14</v>
+        <v>0.1365135366369998</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0091688842266419</v>
+        <v>0.005684471210142682</v>
       </c>
       <c r="I44" t="n">
-        <v>0.008633904069342748</v>
+        <v>0.004455175936586861</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7179730598425758</v>
+        <v>0.3569350439663549</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7179730598425758</v>
+        <v>0.3569350439663549</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium amycolatum_A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_11.fasta</t>
+          <t>label_UMGS194_21.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02242894747500353</v>
+        <v>0.02482965522155297</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03961178078998807</v>
+        <v>2.70372301645703e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03961178078998807</v>
+        <v>2.645580865285189e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2753353776481973</v>
+        <v>0.2876934089281637</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002315886305381388</v>
+        <v>0.002674802328182388</v>
       </c>
       <c r="G45" t="n">
-        <v>0.008696023315234296</v>
+        <v>2.645580865285189e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0479215920781864</v>
+        <v>0.009794034027095739</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03961178078998807</v>
+        <v>2.70372301645703e-14</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5244668308080329</v>
+        <v>0.6750080994948982</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5244668308080329</v>
+        <v>0.6750080994948982</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -7236,38 +6690,38 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_18.fasta</t>
+          <t>label_UMGS194_24.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02033845546361003</v>
+        <v>0.02261669178065202</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02346363097463557</v>
+        <v>2.45536401867764e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02346363097463557</v>
+        <v>2.428571891732918e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2638806287221436</v>
+        <v>0.2795508515736821</v>
       </c>
       <c r="F46" t="n">
-        <v>0.002588763220833947</v>
+        <v>0.006816657138488637</v>
       </c>
       <c r="G46" t="n">
-        <v>0.009939695111547863</v>
+        <v>2.428571891732918e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03151350611102635</v>
+        <v>0.02081094248516483</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02346363097463557</v>
+        <v>2.45536401867764e-14</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6013480584469315</v>
+        <v>0.6702048570219147</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6013480584469315</v>
+        <v>0.6702048570219147</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -7278,38 +6732,38 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_20.fasta</t>
+          <t>label_UMGS194_28.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0226711005729814</v>
+        <v>0.02440666777366078</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02668131058467869</v>
+        <v>2.766709699090276e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02668131058467869</v>
+        <v>2.700279554078703e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2628217131026069</v>
+        <v>0.2830045128351257</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00223763133581294</v>
+        <v>0.008904143253095935</v>
       </c>
       <c r="G47" t="n">
-        <v>0.008665823009680157</v>
+        <v>2.700279554078703e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04236654920327936</v>
+        <v>0.007857192537135483</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02668131058467869</v>
+        <v>2.766709699090279e-14</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5811932510216032</v>
+        <v>0.6758274836008726</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5811932510216032</v>
+        <v>0.6758274836008726</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -7320,38 +6774,38 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_22.fasta</t>
+          <t>label_UMGS194_34.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02109910354319681</v>
+        <v>0.02321547930689961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02472161895204402</v>
+        <v>2.563993679004274e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02472161895204402</v>
+        <v>2.523041044606854e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2549782510464239</v>
+        <v>0.2851348881255881</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002151239404158338</v>
+        <v>0.004540266429263656</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01253257119242589</v>
+        <v>2.523041044606854e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02124729780553158</v>
+        <v>0.01393340428505136</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02472161895204402</v>
+        <v>2.563993679004265e-14</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6138266801521315</v>
+        <v>0.6731759618530957</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6138266801521315</v>
+        <v>0.6731759618530957</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -7362,80 +6816,80 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_3.fasta</t>
+          <t>label_UMGS194_38.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02200059204093796</v>
+        <v>0.02031680757303298</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06480167800354786</v>
+        <v>2.242288563649417e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06480167800354786</v>
+        <v>2.240674105652755e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3196190903897749</v>
+        <v>0.2476899713386739</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002770878370809865</v>
+        <v>0.006880272549016694</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01418045068990606</v>
+        <v>2.240674105652755e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01051662463319174</v>
+        <v>0.02843933125103134</v>
       </c>
       <c r="I49" t="n">
-        <v>0.06480167800354786</v>
+        <v>2.242288563649418e-14</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4365073298647358</v>
+        <v>0.6966736172881555</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4365073298647358</v>
+        <v>0.6966736172881555</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_30.fasta</t>
+          <t>label_UMGS194_43.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01906083386030646</v>
+        <v>0.01835124290333998</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0130194631039877</v>
+        <v>2.22137834870724e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0130194631039877</v>
+        <v>2.22137834870724e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2616012493661221</v>
+        <v>0.2240976796442599</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002750562627928701</v>
+        <v>0.008464298535187509</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01335773332803198</v>
+        <v>2.22137834870724e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03475916434622227</v>
+        <v>0.01213276790549795</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0130194631039877</v>
+        <v>2.22137834870724e-14</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6294120671594253</v>
+        <v>0.7369540110116258</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6294120671594253</v>
+        <v>0.7369540110116258</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -7446,38 +6900,38 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_36.fasta</t>
+          <t>label_UMGS194_46.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02218467271245896</v>
+        <v>0.01975192199251062</v>
       </c>
       <c r="C51" t="n">
-        <v>2.295268649346405e-14</v>
+        <v>2.220373099237981e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>2.295268649346405e-14</v>
+        <v>2.220373099237981e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2741786209321985</v>
+        <v>0.2368714191585235</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005476611531323895</v>
+        <v>0.01050045354980321</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0110063997224724</v>
+        <v>2.220373099237981e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0479389819112116</v>
+        <v>0.0281764434288097</v>
       </c>
       <c r="I51" t="n">
-        <v>2.295268649346405e-14</v>
+        <v>2.220373099237981e-14</v>
       </c>
       <c r="J51" t="n">
-        <v>0.6392147131902658</v>
+        <v>0.7046997618702642</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6392147131902658</v>
+        <v>0.7046997618702642</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -7488,38 +6942,38 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_39.fasta</t>
+          <t>label_UMGS194_50.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01864143511171893</v>
+        <v>0.01976369773080689</v>
       </c>
       <c r="C52" t="n">
-        <v>2.224741123362236e-14</v>
+        <v>2.220418371415579e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>2.224741123362236e-14</v>
+        <v>2.220418371415579e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2272684378483601</v>
+        <v>0.240360400710552</v>
       </c>
       <c r="F52" t="n">
-        <v>0.009586690768731318</v>
+        <v>0.01024835350113718</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01165794127852307</v>
+        <v>2.220418371415579e-14</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04827524434369647</v>
+        <v>0.02470916809605221</v>
       </c>
       <c r="I52" t="n">
-        <v>2.224741123362236e-14</v>
+        <v>2.220418371415579e-14</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6845702506489033</v>
+        <v>0.7049183799613629</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6845702506489033</v>
+        <v>0.7049183799613629</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -7530,122 +6984,122 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_4.fasta</t>
+          <t>label_UMGS194_56.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02381938335680588</v>
+        <v>0.01844547871143402</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06840795896102864</v>
+        <v>2.221290728647803e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06840795896102864</v>
+        <v>2.221290728647803e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2986531955938496</v>
+        <v>0.2187851932466668</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002782837417702585</v>
+        <v>0.01569256340391966</v>
       </c>
       <c r="G53" t="n">
-        <v>0.008510403124529208</v>
+        <v>2.221290728647803e-14</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01539062876111702</v>
+        <v>0.02188939331050357</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06840795896102864</v>
+        <v>2.221290728647803e-14</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4456196748629098</v>
+        <v>0.7251873713273871</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4456196748629098</v>
+        <v>0.7251873713273871</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_5.fasta</t>
+          <t>label_UMGS194_62.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02514949326208184</v>
+        <v>0.0176294519081875</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06713716667025971</v>
+        <v>2.221695665816422e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06713716667025971</v>
+        <v>2.221695665816422e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.310951479789557</v>
+        <v>0.2123354820413871</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00275084650493928</v>
+        <v>0.01396303002534947</v>
       </c>
       <c r="G54" t="n">
-        <v>0.007496277782469802</v>
+        <v>2.221695665816422e-14</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02266798176463495</v>
+        <v>0.01387323458433285</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06713716667025971</v>
+        <v>2.221695665816422e-14</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4295724208855381</v>
+        <v>0.7421988014406542</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4295724208855381</v>
+        <v>0.7421988014406542</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_51.fasta</t>
+          <t>label_UMGS194_71.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01680461656729624</v>
+        <v>0.01640626909246546</v>
       </c>
       <c r="C55" t="n">
-        <v>2.229161954910717e-14</v>
+        <v>2.222949634166907e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>2.229161954910717e-14</v>
+        <v>2.222949634166907e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2050099297772659</v>
+        <v>0.1998204383656023</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01454134464137164</v>
+        <v>0.02007362252372768</v>
       </c>
       <c r="G55" t="n">
-        <v>0.009420367062124173</v>
+        <v>2.222949634166907e-14</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04977930508687644</v>
+        <v>0.01574606864965196</v>
       </c>
       <c r="I55" t="n">
-        <v>2.229161954910717e-14</v>
+        <v>2.222949634166907e-14</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7044444368649988</v>
+        <v>0.7479536013684637</v>
       </c>
       <c r="K55" t="n">
-        <v>0.7044444368649988</v>
+        <v>0.7479536013684637</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -7656,38 +7110,38 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_54.fasta</t>
+          <t>label_UMGS194_76.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01494316626773432</v>
+        <v>0.01659036456419535</v>
       </c>
       <c r="C56" t="n">
-        <v>2.234317111285871e-14</v>
+        <v>2.224417518921088e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>2.234317111285871e-14</v>
+        <v>2.224417518921088e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1864320357458628</v>
+        <v>0.2069330216262812</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02157609854849463</v>
+        <v>0.02545842795012167</v>
       </c>
       <c r="G56" t="n">
-        <v>0.008705813802158424</v>
+        <v>2.224417518921088e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>0.05098569057487889</v>
+        <v>0.02200237833879317</v>
       </c>
       <c r="I56" t="n">
-        <v>2.234317111285871e-14</v>
+        <v>2.224417518921088e-14</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7173571950608038</v>
+        <v>0.7290158075205196</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7173571950608038</v>
+        <v>0.7290158075205196</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -7698,38 +7152,38 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_58.fasta</t>
+          <t>label_UMGS194_8.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01440297152620066</v>
+        <v>0.02179816542870067</v>
       </c>
       <c r="C57" t="n">
-        <v>2.234890826560318e-14</v>
+        <v>0.003883787029564441</v>
       </c>
       <c r="D57" t="n">
-        <v>2.234890826560318e-14</v>
+        <v>0.05855327640578147</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1766098035482498</v>
+        <v>0.3037146652380063</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02407352795836622</v>
+        <v>0.01144194081616051</v>
       </c>
       <c r="G57" t="n">
-        <v>0.008747980935503762</v>
+        <v>0.05855327640578147</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04920404133277017</v>
+        <v>0.005725351765722329</v>
       </c>
       <c r="I57" t="n">
-        <v>2.234890826560318e-14</v>
+        <v>0.003883787029564461</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7269616746988423</v>
+        <v>0.5324457498807185</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7269616746988423</v>
+        <v>0.5324457498807185</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -7740,38 +7194,38 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_66.fasta</t>
+          <t>label_UMGS194_80.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01564797513597444</v>
+        <v>0.0170722222266514</v>
       </c>
       <c r="C58" t="n">
-        <v>2.236288468110477e-14</v>
+        <v>2.223105153730487e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>2.236288468110477e-14</v>
+        <v>2.223105153730487e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1829708127682039</v>
+        <v>0.2071589920324277</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05832111903932006</v>
+        <v>0.02493029990004868</v>
       </c>
       <c r="G58" t="n">
-        <v>0.008772998425234697</v>
+        <v>2.223105153730487e-14</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05128231705236395</v>
+        <v>0.01976084782065112</v>
       </c>
       <c r="I58" t="n">
-        <v>2.236288468110477e-14</v>
+        <v>2.223105153730487e-14</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6830047775788358</v>
+        <v>0.7310776380201321</v>
       </c>
       <c r="K58" t="n">
-        <v>0.6830047775788358</v>
+        <v>0.7310776380201321</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -7782,38 +7236,38 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_69.fasta</t>
+          <t>label_UMGS194_88.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01542294399307053</v>
+        <v>0.02080450913154742</v>
       </c>
       <c r="C59" t="n">
-        <v>2.241479261925218e-14</v>
+        <v>2.478884814542399e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>2.241479261925218e-14</v>
+        <v>2.44899691204078e-14</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1951068069122746</v>
+        <v>0.2385652636224761</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05704344140089564</v>
+        <v>0.03597091619269464</v>
       </c>
       <c r="G59" t="n">
-        <v>0.007526399395480347</v>
+        <v>2.44899691204078e-14</v>
       </c>
       <c r="H59" t="n">
-        <v>0.05608890794193752</v>
+        <v>0.01522607882401007</v>
       </c>
       <c r="I59" t="n">
-        <v>2.241479261925218e-14</v>
+        <v>2.478884814542398e-14</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6688115003562741</v>
+        <v>0.6894332322291733</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6688115003562741</v>
+        <v>0.6894332322291733</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -7824,80 +7278,80 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_73.fasta</t>
+          <t>label_UMGS194_95.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01462559484454673</v>
+        <v>0.02068815753738992</v>
       </c>
       <c r="C60" t="n">
-        <v>2.242712665547448e-14</v>
+        <v>0.004525236867643853</v>
       </c>
       <c r="D60" t="n">
-        <v>2.242712665547448e-14</v>
+        <v>0.1333604289201427</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1952952839743701</v>
+        <v>0.3091015114223625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04360800264919753</v>
+        <v>0.03386503519531079</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007051202527385505</v>
+        <v>0.1333604289201427</v>
       </c>
       <c r="H60" t="n">
-        <v>0.05367755336558603</v>
+        <v>0.0050059821381272</v>
       </c>
       <c r="I60" t="n">
-        <v>2.242712665547448e-14</v>
+        <v>0.004525236867643868</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6857423626388469</v>
+        <v>0.3555679821312364</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6857423626388469</v>
+        <v>0.3555679821312364</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium amycolatum_A</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_78.fasta</t>
+          <t>label_UMGS194_96.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0144966126880003</v>
+        <v>0.02146746572136144</v>
       </c>
       <c r="C61" t="n">
-        <v>2.232352431050097e-14</v>
+        <v>2.497485803731602e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>2.232352431050097e-14</v>
+        <v>2.464010177878246e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1929275988518856</v>
+        <v>0.1925699788327769</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02513424581146649</v>
+        <v>0.02958512548266477</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008637502770616392</v>
+        <v>2.464010177878246e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>0.04227923740859135</v>
+        <v>0.01345248892008848</v>
       </c>
       <c r="I61" t="n">
-        <v>2.232352431050097e-14</v>
+        <v>2.497485803731595e-14</v>
       </c>
       <c r="J61" t="n">
-        <v>0.716524802469373</v>
+        <v>0.7429249410430092</v>
       </c>
       <c r="K61" t="n">
-        <v>0.716524802469373</v>
+        <v>0.7429249410430092</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -7908,206 +7362,206 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_79.fasta</t>
+          <t>label_UMGS194_98.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01532574111285926</v>
+        <v>0.02051841343813969</v>
       </c>
       <c r="C62" t="n">
-        <v>2.233700141846286e-14</v>
+        <v>0.004403313899886158</v>
       </c>
       <c r="D62" t="n">
-        <v>2.233700141846286e-14</v>
+        <v>0.1103377463974138</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1939611311998635</v>
+        <v>0.2824369057933275</v>
       </c>
       <c r="F62" t="n">
-        <v>0.03522339619255133</v>
+        <v>0.02473396223503004</v>
       </c>
       <c r="G62" t="n">
-        <v>0.008702959793674091</v>
+        <v>0.1103377463974138</v>
       </c>
       <c r="H62" t="n">
-        <v>0.04526779047442972</v>
+        <v>0.006404962504576663</v>
       </c>
       <c r="I62" t="n">
-        <v>2.233700141846286e-14</v>
+        <v>0.004403313899886152</v>
       </c>
       <c r="J62" t="n">
-        <v>0.7015189812265552</v>
+        <v>0.436423635434326</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7015189812265552</v>
+        <v>0.436423635434326</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium amycolatum_A</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_83.fasta</t>
+          <t>label_UMGS194_1.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01604200033297819</v>
+        <v>0.03335983574766777</v>
       </c>
       <c r="C63" t="n">
-        <v>2.226508008882777e-14</v>
+        <v>0.113623714664121</v>
       </c>
       <c r="D63" t="n">
-        <v>2.226508008882777e-14</v>
+        <v>0.113623714664121</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2046136612350037</v>
+        <v>0.2734276916237314</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01240661387405334</v>
+        <v>0.003660449823742735</v>
       </c>
       <c r="G63" t="n">
-        <v>0.009420549965909117</v>
+        <v>0.113623714664121</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0357964952810244</v>
+        <v>0.003489109559553525</v>
       </c>
       <c r="I63" t="n">
-        <v>2.226508008882777e-14</v>
+        <v>0.003478877867383033</v>
       </c>
       <c r="J63" t="n">
-        <v>0.7217206793109644</v>
+        <v>0.3417128913855585</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7217206793109644</v>
+        <v>0.3417128913855585</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_90.fasta</t>
+          <t>label_UMGS194_100.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01563485084574706</v>
+        <v>0.02788361511411341</v>
       </c>
       <c r="C64" t="n">
-        <v>2.231134969530046e-14</v>
+        <v>0.02887640838428351</v>
       </c>
       <c r="D64" t="n">
-        <v>2.231134969530046e-14</v>
+        <v>0.02887640838428351</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1711857631209029</v>
+        <v>0.4255000936139563</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02803118173115805</v>
+        <v>0.008396840493066209</v>
       </c>
       <c r="G64" t="n">
-        <v>0.006616018568039397</v>
+        <v>0.02887640838428351</v>
       </c>
       <c r="H64" t="n">
-        <v>0.04639313582175688</v>
+        <v>0.002107560366774067</v>
       </c>
       <c r="I64" t="n">
-        <v>2.231134969530046e-14</v>
+        <v>0.002107518487978122</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7321390499123288</v>
+        <v>0.4473751467712613</v>
       </c>
       <c r="K64" t="n">
-        <v>0.7321390499123288</v>
+        <v>0.4473751467712613</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium ammoniagenes</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_91.fasta</t>
+          <t>label_UMGS194_101.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01868707660134248</v>
+        <v>0.02569729359188827</v>
       </c>
       <c r="C65" t="n">
-        <v>2.223140614985625e-14</v>
+        <v>0.1093586905762942</v>
       </c>
       <c r="D65" t="n">
-        <v>2.223140614985625e-14</v>
+        <v>0.1093586905762942</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2384533900462026</v>
+        <v>0.5396437373951082</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01427690039743284</v>
+        <v>0.007453947778773768</v>
       </c>
       <c r="G65" t="n">
-        <v>0.007066869845248183</v>
+        <v>0.1093586905762942</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01709287829896049</v>
+        <v>0.003406289926930621</v>
       </c>
       <c r="I65" t="n">
-        <v>2.223140614985625e-14</v>
+        <v>0.003406289929052674</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7044228848107468</v>
+        <v>0.09231636964936379</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7044228848107468</v>
+        <v>0.5396437373951082</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>s__Corynebacterium sp900539985</t>
+          <t>s__Corynebacterium aurimucosum_E</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_99.fasta</t>
+          <t>label_UMGS194_104.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02117744680080863</v>
+        <v>0.0279709583762396</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07208114080760611</v>
+        <v>0.04672194437316515</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07208114080760611</v>
+        <v>0.04672194437316515</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2448573129706735</v>
+        <v>0.3775527070255295</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002966599904807402</v>
+        <v>0.009637490256586705</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006584231693052188</v>
+        <v>0.04672194437316515</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01041715699716566</v>
+        <v>0.00265189462376636</v>
       </c>
       <c r="I66" t="n">
-        <v>0.07208114080760611</v>
+        <v>0.002651873168684555</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4977538292106743</v>
+        <v>0.4393692434296979</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4977538292106743</v>
+        <v>0.4393692434296979</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -8118,38 +7572,38 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_10.fasta</t>
+          <t>label_UMGS194_14.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0212531258882964</v>
+        <v>0.0299670643149171</v>
       </c>
       <c r="C67" t="n">
-        <v>0.003132282023529167</v>
+        <v>0.0245500289535391</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03920118898518109</v>
+        <v>0.0245500289535391</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2945978575961557</v>
+        <v>0.2709195728796464</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01981859842894727</v>
+        <v>0.00360793857217477</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03920118898518109</v>
+        <v>0.0245500289535391</v>
       </c>
       <c r="H67" t="n">
-        <v>0.005383014398148649</v>
+        <v>0.002082393914105031</v>
       </c>
       <c r="I67" t="n">
-        <v>0.003132282023529176</v>
+        <v>0.00203999755846302</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5742804616710315</v>
+        <v>0.6177329459000764</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5742804616710315</v>
+        <v>0.6177329459000764</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -8160,80 +7614,80 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_103.fasta</t>
+          <t>label_UMGS194_15.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02108659647058225</v>
+        <v>0.0314016818326034</v>
       </c>
       <c r="C68" t="n">
-        <v>0.004455175936587144</v>
+        <v>0.06732767536436163</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1365135366369998</v>
+        <v>0.06732767536436163</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2830421939108993</v>
+        <v>0.2298214615773987</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05131426929484705</v>
+        <v>0.003869581583655092</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1365135366369998</v>
+        <v>0.06732767536436163</v>
       </c>
       <c r="H68" t="n">
-        <v>0.005684471210142682</v>
+        <v>0.003340170189988059</v>
       </c>
       <c r="I68" t="n">
-        <v>0.004455175936586861</v>
+        <v>0.003129078714753267</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3569350439663549</v>
+        <v>0.5264550000085167</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3569350439663549</v>
+        <v>0.5264550000085167</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>s__Corynebacterium amycolatum_A</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_21.fasta</t>
+          <t>label_UMGS194_17.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02482965522155297</v>
+        <v>0.03113306246785671</v>
       </c>
       <c r="C69" t="n">
-        <v>2.70372301645703e-14</v>
+        <v>0.06435355448039626</v>
       </c>
       <c r="D69" t="n">
-        <v>2.645580865285189e-14</v>
+        <v>0.06435355448039626</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2876934089281637</v>
+        <v>0.2188501882530365</v>
       </c>
       <c r="F69" t="n">
-        <v>0.002674802328182388</v>
+        <v>0.003922342417729244</v>
       </c>
       <c r="G69" t="n">
-        <v>2.645580865285189e-14</v>
+        <v>0.06435355448039626</v>
       </c>
       <c r="H69" t="n">
-        <v>0.009794034027095739</v>
+        <v>0.003467148950923304</v>
       </c>
       <c r="I69" t="n">
-        <v>2.70372301645703e-14</v>
+        <v>0.003085715393079604</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6750080994948982</v>
+        <v>0.5464808790761858</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6750080994948982</v>
+        <v>0.5464808790761858</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -8244,38 +7698,38 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_24.fasta</t>
+          <t>label_UMGS194_23.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02261669178065202</v>
+        <v>0.02990715807211318</v>
       </c>
       <c r="C70" t="n">
-        <v>2.45536401867764e-14</v>
+        <v>0.01122035122496302</v>
       </c>
       <c r="D70" t="n">
-        <v>2.428571891732918e-14</v>
+        <v>0.01122035122496302</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2795508515736821</v>
+        <v>0.2434448167187816</v>
       </c>
       <c r="F70" t="n">
-        <v>0.006816657138488637</v>
+        <v>0.004472487313059334</v>
       </c>
       <c r="G70" t="n">
-        <v>2.428571891732918e-14</v>
+        <v>0.01122035122496302</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02081094248516483</v>
+        <v>0.001361541960716493</v>
       </c>
       <c r="I70" t="n">
-        <v>2.45536401867764e-14</v>
+        <v>0.0009900038106858016</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6702048570219147</v>
+        <v>0.6861629384497546</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6702048570219147</v>
+        <v>0.6861629384497546</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -8286,38 +7740,38 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_28.fasta</t>
+          <t>label_UMGS194_32.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02440666777366078</v>
+        <v>0.03000224670762651</v>
       </c>
       <c r="C71" t="n">
-        <v>2.766709699090276e-14</v>
+        <v>0.02749016055299795</v>
       </c>
       <c r="D71" t="n">
-        <v>2.700279554078703e-14</v>
+        <v>0.02749016055299795</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2830045128351257</v>
+        <v>0.1984343502906297</v>
       </c>
       <c r="F71" t="n">
-        <v>0.008904143253095935</v>
+        <v>0.005899080270033092</v>
       </c>
       <c r="G71" t="n">
-        <v>2.700279554078703e-14</v>
+        <v>0.02749016055299795</v>
       </c>
       <c r="H71" t="n">
-        <v>0.007857192537135483</v>
+        <v>0.006359860562618451</v>
       </c>
       <c r="I71" t="n">
-        <v>2.766709699090279e-14</v>
+        <v>0.001944940036982341</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6758274836008726</v>
+        <v>0.6748890404731162</v>
       </c>
       <c r="K71" t="n">
-        <v>0.6758274836008726</v>
+        <v>0.6748890404731162</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -8328,38 +7782,38 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_34.fasta</t>
+          <t>label_UMGS194_41.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02321547930689961</v>
+        <v>0.02699345092768841</v>
       </c>
       <c r="C72" t="n">
-        <v>2.563993679004274e-14</v>
+        <v>2.221458412793566e-14</v>
       </c>
       <c r="D72" t="n">
-        <v>2.523041044606854e-14</v>
+        <v>2.221458412793566e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2851348881255881</v>
+        <v>0.1701794756095995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.004540266429263656</v>
+        <v>0.01345417136786025</v>
       </c>
       <c r="G72" t="n">
-        <v>2.523041044606854e-14</v>
+        <v>2.221458412793566e-14</v>
       </c>
       <c r="H72" t="n">
-        <v>0.01393340428505136</v>
+        <v>0.006021705924683853</v>
       </c>
       <c r="I72" t="n">
-        <v>2.563993679004265e-14</v>
+        <v>9.961200818196341e-11</v>
       </c>
       <c r="J72" t="n">
-        <v>0.6731759618530957</v>
+        <v>0.7833511960704894</v>
       </c>
       <c r="K72" t="n">
-        <v>0.6731759618530957</v>
+        <v>0.7833511960704894</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -8370,38 +7824,38 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_38.fasta</t>
+          <t>label_UMGS194_48.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02031680757303298</v>
+        <v>0.02394852628358564</v>
       </c>
       <c r="C73" t="n">
-        <v>2.242288563649417e-14</v>
+        <v>2.225513097588165e-14</v>
       </c>
       <c r="D73" t="n">
-        <v>2.240674105652755e-14</v>
+        <v>2.225513097588165e-14</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2476899713386739</v>
+        <v>0.1608935727254996</v>
       </c>
       <c r="F73" t="n">
-        <v>0.006880272549016694</v>
+        <v>0.03844475241558686</v>
       </c>
       <c r="G73" t="n">
-        <v>2.240674105652755e-14</v>
+        <v>2.225513097588165e-14</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02843933125103134</v>
+        <v>0.02497285357511565</v>
       </c>
       <c r="I73" t="n">
-        <v>2.242288563649418e-14</v>
+        <v>1.078408635082777e-10</v>
       </c>
       <c r="J73" t="n">
-        <v>0.6966736172881555</v>
+        <v>0.7517402948923045</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6966736172881555</v>
+        <v>0.7517402948923045</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -8412,38 +7866,38 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_43.fasta</t>
+          <t>label_UMGS194_53.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01835124290333998</v>
+        <v>0.02352322533494454</v>
       </c>
       <c r="C74" t="n">
-        <v>2.22137834870724e-14</v>
+        <v>2.222939506184787e-14</v>
       </c>
       <c r="D74" t="n">
-        <v>2.22137834870724e-14</v>
+        <v>2.222939506184787e-14</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2240976796442599</v>
+        <v>0.1587840431435511</v>
       </c>
       <c r="F74" t="n">
-        <v>0.008464298535187509</v>
+        <v>0.01635511130649707</v>
       </c>
       <c r="G74" t="n">
-        <v>2.22137834870724e-14</v>
+        <v>2.222939506184787e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01213276790549795</v>
+        <v>0.004471825523729348</v>
       </c>
       <c r="I74" t="n">
-        <v>2.22137834870724e-14</v>
+        <v>9.128299578851457e-11</v>
       </c>
       <c r="J74" t="n">
-        <v>0.7369540110116258</v>
+        <v>0.7968657945999283</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7369540110116258</v>
+        <v>0.7968657945999283</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -8454,38 +7908,38 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_46.fasta</t>
+          <t>label_UMGS194_57.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01975192199251062</v>
+        <v>0.01916643560311494</v>
       </c>
       <c r="C75" t="n">
-        <v>2.220373099237981e-14</v>
+        <v>2.226057779689004e-14</v>
       </c>
       <c r="D75" t="n">
-        <v>2.220373099237981e-14</v>
+        <v>2.226057779689004e-14</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2368714191585235</v>
+        <v>0.1202381435874198</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01050045354980321</v>
+        <v>0.02436778997635006</v>
       </c>
       <c r="G75" t="n">
-        <v>2.220373099237981e-14</v>
+        <v>2.226057779689004e-14</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0281764434288097</v>
+        <v>0.005175859426471655</v>
       </c>
       <c r="I75" t="n">
-        <v>2.220373099237981e-14</v>
+        <v>1.287137807413852e-10</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7046997618702642</v>
+        <v>0.831051771277863</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7046997618702642</v>
+        <v>0.831051771277863</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -8496,38 +7950,38 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_50.fasta</t>
+          <t>label_UMGS194_60.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01976369773080689</v>
+        <v>0.01999751348848081</v>
       </c>
       <c r="C76" t="n">
-        <v>2.220418371415579e-14</v>
+        <v>2.229248856316684e-14</v>
       </c>
       <c r="D76" t="n">
-        <v>2.220418371415579e-14</v>
+        <v>2.229248856316684e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.240360400710552</v>
+        <v>0.1117468148714151</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01024835350113718</v>
+        <v>0.04257709742562905</v>
       </c>
       <c r="G76" t="n">
-        <v>2.220418371415579e-14</v>
+        <v>2.229248856316684e-14</v>
       </c>
       <c r="H76" t="n">
-        <v>0.02470916809605221</v>
+        <v>0.01218041602882836</v>
       </c>
       <c r="I76" t="n">
-        <v>2.220418371415579e-14</v>
+        <v>2.07512033219237e-10</v>
       </c>
       <c r="J76" t="n">
-        <v>0.7049183799613629</v>
+        <v>0.8134981579780678</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7049183799613629</v>
+        <v>0.8134981579780678</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -8538,38 +7992,38 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_56.fasta</t>
+          <t>label_UMGS194_67.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01844547871143402</v>
+        <v>0.01971681584030597</v>
       </c>
       <c r="C77" t="n">
-        <v>2.221290728647803e-14</v>
+        <v>2.226894875099574e-14</v>
       </c>
       <c r="D77" t="n">
-        <v>2.221290728647803e-14</v>
+        <v>2.226894875099574e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2187851932466668</v>
+        <v>0.1355401749078106</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01569256340391966</v>
+        <v>0.0310088357407972</v>
       </c>
       <c r="G77" t="n">
-        <v>2.221290728647803e-14</v>
+        <v>2.226894875099574e-14</v>
       </c>
       <c r="H77" t="n">
-        <v>0.02188939331050357</v>
+        <v>0.005541693750245382</v>
       </c>
       <c r="I77" t="n">
-        <v>2.221290728647803e-14</v>
+        <v>5.747930742577336e-11</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7251873713273871</v>
+        <v>0.8081924797032948</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7251873713273871</v>
+        <v>0.8081924797032948</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -8580,38 +8034,38 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_62.fasta</t>
+          <t>label_UMGS194_7.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0176294519081875</v>
+        <v>0.03304309046608001</v>
       </c>
       <c r="C78" t="n">
-        <v>2.221695665816422e-14</v>
+        <v>0.05525164574122481</v>
       </c>
       <c r="D78" t="n">
-        <v>2.221695665816422e-14</v>
+        <v>0.05525164574122481</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2123354820413871</v>
+        <v>0.2824828368961668</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01396303002534947</v>
+        <v>0.003896368600317484</v>
       </c>
       <c r="G78" t="n">
-        <v>2.221695665816422e-14</v>
+        <v>0.05525164574122481</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01387323458433285</v>
+        <v>0.002989352895733517</v>
       </c>
       <c r="I78" t="n">
-        <v>2.221695665816422e-14</v>
+        <v>0.002956384125059338</v>
       </c>
       <c r="J78" t="n">
-        <v>0.7421988014406542</v>
+        <v>0.5088770297929683</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7421988014406542</v>
+        <v>0.5088770297929683</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -8622,38 +8076,38 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_71.fasta</t>
+          <t>label_UMGS194_70.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01640626909246546</v>
+        <v>0.01934781176854189</v>
       </c>
       <c r="C79" t="n">
-        <v>2.222949634166907e-14</v>
+        <v>2.22712646356371e-14</v>
       </c>
       <c r="D79" t="n">
-        <v>2.222949634166907e-14</v>
+        <v>2.22712646356371e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1998204383656023</v>
+        <v>0.1145292805130446</v>
       </c>
       <c r="F79" t="n">
-        <v>0.02007362252372768</v>
+        <v>0.02816712266453305</v>
       </c>
       <c r="G79" t="n">
-        <v>2.222949634166907e-14</v>
+        <v>2.22712646356371e-14</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01574606864965196</v>
+        <v>0.007673448303497679</v>
       </c>
       <c r="I79" t="n">
-        <v>2.222949634166907e-14</v>
+        <v>1.907274735454092e-10</v>
       </c>
       <c r="J79" t="n">
-        <v>0.7479536013684637</v>
+        <v>0.8302823365595886</v>
       </c>
       <c r="K79" t="n">
-        <v>0.7479536013684637</v>
+        <v>0.8302823365595886</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -8664,38 +8118,38 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_76.fasta</t>
+          <t>label_UMGS194_72.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01659036456419535</v>
+        <v>0.02010813877303378</v>
       </c>
       <c r="C80" t="n">
-        <v>2.224417518921088e-14</v>
+        <v>2.226667355662707e-14</v>
       </c>
       <c r="D80" t="n">
-        <v>2.224417518921088e-14</v>
+        <v>2.226667355662707e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2069330216262812</v>
+        <v>0.1173222904163375</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02545842795012167</v>
+        <v>0.03796712363552407</v>
       </c>
       <c r="G80" t="n">
-        <v>2.224417518921088e-14</v>
+        <v>2.226667355662707e-14</v>
       </c>
       <c r="H80" t="n">
-        <v>0.02200237833879317</v>
+        <v>0.005419221970894078</v>
       </c>
       <c r="I80" t="n">
-        <v>2.224417518921088e-14</v>
+        <v>3.508001817026602e-10</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7290158075205196</v>
+        <v>0.8191832248533436</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7290158075205196</v>
+        <v>0.8191832248533436</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -8706,38 +8160,38 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_8.fasta</t>
+          <t>label_UMGS194_74.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02179816542870067</v>
+        <v>0.0230862883156433</v>
       </c>
       <c r="C81" t="n">
-        <v>0.003883787029564441</v>
+        <v>2.224667736730416e-14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05855327640578147</v>
+        <v>2.224667736730416e-14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3037146652380063</v>
+        <v>0.1340559830195038</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01144194081616051</v>
+        <v>0.04141089077374133</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05855327640578147</v>
+        <v>2.224667736730416e-14</v>
       </c>
       <c r="H81" t="n">
-        <v>0.005725351765722329</v>
+        <v>0.005079922756377005</v>
       </c>
       <c r="I81" t="n">
-        <v>0.003883787029564461</v>
+        <v>3.662044296205542e-10</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5324457498807185</v>
+        <v>0.7963669147684634</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5324457498807185</v>
+        <v>0.7963669147684634</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -8748,38 +8202,38 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_80.fasta</t>
+          <t>label_UMGS194_75.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0170722222266514</v>
+        <v>0.01939266095982838</v>
       </c>
       <c r="C82" t="n">
-        <v>2.223105153730487e-14</v>
+        <v>2.227707378172435e-14</v>
       </c>
       <c r="D82" t="n">
-        <v>2.223105153730487e-14</v>
+        <v>2.227707378172435e-14</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2071589920324277</v>
+        <v>0.09760902291181749</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02493029990004868</v>
+        <v>0.04101805738976465</v>
       </c>
       <c r="G82" t="n">
-        <v>2.223105153730487e-14</v>
+        <v>2.227707378172435e-14</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01976084782065112</v>
+        <v>0.005173181014480917</v>
       </c>
       <c r="I82" t="n">
-        <v>2.223105153730487e-14</v>
+        <v>3.306814594559704e-10</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7310776380201321</v>
+        <v>0.8368070773933602</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7310776380201321</v>
+        <v>0.8368070773933602</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -8790,38 +8244,38 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_88.fasta</t>
+          <t>label_UMGS194_93.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02080450913154742</v>
+        <v>0.02608480091161733</v>
       </c>
       <c r="C83" t="n">
-        <v>2.478884814542399e-14</v>
+        <v>2.221174450435859e-14</v>
       </c>
       <c r="D83" t="n">
-        <v>2.44899691204078e-14</v>
+        <v>2.221174450435859e-14</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2385652636224761</v>
+        <v>0.1994031370803651</v>
       </c>
       <c r="F83" t="n">
-        <v>0.03597091619269464</v>
+        <v>0.01916914919523343</v>
       </c>
       <c r="G83" t="n">
-        <v>2.44899691204078e-14</v>
+        <v>2.221174450435859e-14</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01522607882401007</v>
+        <v>2.90641273393919e-05</v>
       </c>
       <c r="I83" t="n">
-        <v>2.478884814542398e-14</v>
+        <v>1.210120619067268e-10</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6894332322291733</v>
+        <v>0.7553138485643661</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6894332322291733</v>
+        <v>0.7553138485643661</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -8832,80 +8286,80 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_95.fasta</t>
+          <t>label_UMGS194_102.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02068815753738992</v>
+        <v>0.007057625895195691</v>
       </c>
       <c r="C84" t="n">
-        <v>0.004525236867643853</v>
+        <v>0.143635237282917</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1333604289201427</v>
+        <v>0.007057625895195691</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3091015114223625</v>
+        <v>0.203805685767477</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03386503519531079</v>
+        <v>0.01404267451844469</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1333604289201427</v>
+        <v>0.007057625895195681</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0050059821381272</v>
+        <v>0.01051032802577603</v>
       </c>
       <c r="I84" t="n">
-        <v>0.004525236867643868</v>
+        <v>0.007265123167901806</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3555679821312364</v>
+        <v>0.5995680735518966</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3555679821312364</v>
+        <v>0.5995680735518966</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>s__Corynebacterium amycolatum_A</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_96.fasta</t>
+          <t>label_UMGS194_105.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02146746572136144</v>
+        <v>0.007315389442828938</v>
       </c>
       <c r="C85" t="n">
-        <v>2.497485803731602e-14</v>
+        <v>0.1816026896077018</v>
       </c>
       <c r="D85" t="n">
-        <v>2.464010177878246e-14</v>
+        <v>0.007315389442828938</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1925699788327769</v>
+        <v>0.2029115558611238</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02958512548266477</v>
+        <v>0.01089885064086573</v>
       </c>
       <c r="G85" t="n">
-        <v>2.464010177878246e-14</v>
+        <v>0.007315389442828914</v>
       </c>
       <c r="H85" t="n">
-        <v>0.01345248892008848</v>
+        <v>0.008918911098493633</v>
       </c>
       <c r="I85" t="n">
-        <v>2.497485803731595e-14</v>
+        <v>0.007560987801032332</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7429249410430092</v>
+        <v>0.5661608366622958</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7429249410430092</v>
+        <v>0.5661608366622958</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -8916,248 +8370,248 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_98.fasta</t>
+          <t>label_UMGS194_12.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02051841343813969</v>
+        <v>0.007008224916006646</v>
       </c>
       <c r="C86" t="n">
-        <v>0.004403313899886158</v>
+        <v>0.125876495100284</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1103377463974138</v>
+        <v>0.007008224916006646</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2824369057933275</v>
+        <v>0.2027065018593159</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02473396223503004</v>
+        <v>0.0094176746844151</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1103377463974138</v>
+        <v>0.007008224916006619</v>
       </c>
       <c r="H86" t="n">
-        <v>0.006404962504576663</v>
+        <v>0.01099124307066008</v>
       </c>
       <c r="I86" t="n">
-        <v>0.004403313899886152</v>
+        <v>0.007343511149337643</v>
       </c>
       <c r="J86" t="n">
-        <v>0.436423635434326</v>
+        <v>0.6226398993879675</v>
       </c>
       <c r="K86" t="n">
-        <v>0.436423635434326</v>
+        <v>0.6226398993879675</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>s__Corynebacterium amycolatum_A</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_1.fasta</t>
+          <t>label_UMGS194_16.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.03335983574766777</v>
+        <v>2.223709566798964e-14</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113623714664121</v>
+        <v>2.223709566798964e-14</v>
       </c>
       <c r="D87" t="n">
-        <v>0.113623714664121</v>
+        <v>2.223709566798964e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2734276916237314</v>
+        <v>0.1906139096209925</v>
       </c>
       <c r="F87" t="n">
-        <v>0.003660449823742735</v>
+        <v>0.01072808322100099</v>
       </c>
       <c r="G87" t="n">
-        <v>0.113623714664121</v>
+        <v>2.223709566798964e-14</v>
       </c>
       <c r="H87" t="n">
-        <v>0.003489109559553525</v>
+        <v>0.20718156693315</v>
       </c>
       <c r="I87" t="n">
-        <v>0.003478877867383033</v>
+        <v>0.0006205064228130588</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3417128913855585</v>
+        <v>0.5908559338019546</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3417128913855585</v>
+        <v>0.5908559338019546</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_100.fasta</t>
+          <t>label_UMGS194_27.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02788361511411341</v>
+        <v>3.444102863987834e-14</v>
       </c>
       <c r="C88" t="n">
-        <v>0.02887640838428351</v>
+        <v>3.299722531678893e-14</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02887640838428351</v>
+        <v>3.444102863987834e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4255000936139563</v>
+        <v>0.2504120852410985</v>
       </c>
       <c r="F88" t="n">
-        <v>0.008396840493066209</v>
+        <v>0.007102372736602043</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02887640838428351</v>
+        <v>3.444102863987833e-14</v>
       </c>
       <c r="H88" t="n">
-        <v>0.002107560366774067</v>
+        <v>0.02614522398592805</v>
       </c>
       <c r="I88" t="n">
-        <v>0.002107518487978122</v>
+        <v>0.0008190835236313968</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4473751467712613</v>
+        <v>0.7155212345126035</v>
       </c>
       <c r="K88" t="n">
-        <v>0.4473751467712613</v>
+        <v>0.7155212345126035</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_101.fasta</t>
+          <t>label_UMGS194_35.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02569729359188827</v>
+        <v>2.433921278463471e-14</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1093586905762942</v>
+        <v>2.412704307909392e-14</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1093586905762942</v>
+        <v>2.433921278463471e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5396437373951082</v>
+        <v>0.2108161032209264</v>
       </c>
       <c r="F89" t="n">
-        <v>0.007453947778773768</v>
+        <v>0.01384014642876868</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1093586905762942</v>
+        <v>2.433921278463471e-14</v>
       </c>
       <c r="H89" t="n">
-        <v>0.003406289926930621</v>
+        <v>0.02682192786246568</v>
       </c>
       <c r="I89" t="n">
-        <v>0.003406289929052674</v>
+        <v>0.0007636584962131668</v>
       </c>
       <c r="J89" t="n">
-        <v>0.09231636964936379</v>
+        <v>0.7477581639915288</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5396437373951082</v>
+        <v>0.7477581639915288</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>s__Corynebacterium aurimucosum_E</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_104.fasta</t>
+          <t>label_UMGS194_42.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0279709583762396</v>
+        <v>2.220492714631397e-14</v>
       </c>
       <c r="C90" t="n">
-        <v>0.04672194437316515</v>
+        <v>2.220492714631397e-14</v>
       </c>
       <c r="D90" t="n">
-        <v>0.04672194437316515</v>
+        <v>2.220492714631397e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3775527070255295</v>
+        <v>0.1980474329538816</v>
       </c>
       <c r="F90" t="n">
-        <v>0.009637490256586705</v>
+        <v>0.0238695173745339</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04672194437316515</v>
+        <v>2.220492714631397e-14</v>
       </c>
       <c r="H90" t="n">
-        <v>0.00265189462376636</v>
+        <v>0.03094293704371532</v>
       </c>
       <c r="I90" t="n">
-        <v>0.002651873168684555</v>
+        <v>0.0007832435351551763</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4393692434296979</v>
+        <v>0.7463568690926252</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4393692434296979</v>
+        <v>0.7463568690926252</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>s__Corynebacterium ammoniagenes</t>
+          <t>s__Corynebacterium sp900539985</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_14.fasta</t>
+          <t>label_UMGS194_44.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0299670643149171</v>
+        <v>2.222434785978291e-14</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0245500289535391</v>
+        <v>2.222394936262311e-14</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0245500289535391</v>
+        <v>2.222434785978291e-14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2709195728796464</v>
+        <v>0.2002315895018025</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00360793857217477</v>
+        <v>0.01960879181852223</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0245500289535391</v>
+        <v>2.222434785978291e-14</v>
       </c>
       <c r="H91" t="n">
-        <v>0.002082393914105031</v>
+        <v>0.03410298773992524</v>
       </c>
       <c r="I91" t="n">
-        <v>0.00203999755846302</v>
+        <v>0.0007511315557744673</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6177329459000764</v>
+        <v>0.7453054993838867</v>
       </c>
       <c r="K91" t="n">
-        <v>0.6177329459000764</v>
+        <v>0.7453054993838867</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -9168,38 +8622,38 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_15.fasta</t>
+          <t>label_UMGS194_52.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0314016818326034</v>
+        <v>2.222582070717228e-14</v>
       </c>
       <c r="C92" t="n">
-        <v>0.06732767536436163</v>
+        <v>2.222582070717228e-14</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06732767536436163</v>
+        <v>2.222582070717228e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2298214615773987</v>
+        <v>0.185793618753437</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003869581583655092</v>
+        <v>0.0277456037087416</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06732767536436163</v>
+        <v>2.222582070717228e-14</v>
       </c>
       <c r="H92" t="n">
-        <v>0.003340170189988059</v>
+        <v>0.04080968608540822</v>
       </c>
       <c r="I92" t="n">
-        <v>0.003129078714753267</v>
+        <v>0.0007807374147987648</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5264550000085167</v>
+        <v>0.7448703540375256</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5264550000085167</v>
+        <v>0.7448703540375256</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -9210,38 +8664,38 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_17.fasta</t>
+          <t>label_UMGS194_55.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03113306246785671</v>
+        <v>2.22442254087425e-14</v>
       </c>
       <c r="C93" t="n">
-        <v>0.06435355448039626</v>
+        <v>2.22442254087425e-14</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06435355448039626</v>
+        <v>2.22442254087425e-14</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2188501882530365</v>
+        <v>0.1764148417870937</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003922342417729244</v>
+        <v>0.03477022813908831</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06435355448039626</v>
+        <v>2.22442254087425e-14</v>
       </c>
       <c r="H93" t="n">
-        <v>0.003467148950923304</v>
+        <v>0.03859711009895473</v>
       </c>
       <c r="I93" t="n">
-        <v>0.003085715393079604</v>
+        <v>0.000825015011412766</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5464808790761858</v>
+        <v>0.7493928049633615</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5464808790761858</v>
+        <v>0.7493928049633615</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -9252,38 +8706,38 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_23.fasta</t>
+          <t>label_UMGS194_64.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02990715807211318</v>
+        <v>2.222970120158706e-14</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01122035122496302</v>
+        <v>2.222970120158706e-14</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01122035122496302</v>
+        <v>2.222970120158706e-14</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2434448167187816</v>
+        <v>0.1855637150405526</v>
       </c>
       <c r="F94" t="n">
-        <v>0.004472487313059334</v>
+        <v>0.03634380866091011</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01122035122496302</v>
+        <v>2.222970120158706e-14</v>
       </c>
       <c r="H94" t="n">
-        <v>0.001361541960716493</v>
+        <v>0.03959803591564275</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0009900038106858016</v>
+        <v>0.0006775039521664047</v>
       </c>
       <c r="J94" t="n">
-        <v>0.6861629384497546</v>
+        <v>0.7378169364306392</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6861629384497546</v>
+        <v>0.7378169364306392</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -9294,38 +8748,38 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_32.fasta</t>
+          <t>label_UMGS194_65.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.03000224670762651</v>
+        <v>2.225708545220532e-14</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02749016055299795</v>
+        <v>2.225708545220532e-14</v>
       </c>
       <c r="D95" t="n">
-        <v>0.02749016055299795</v>
+        <v>2.225708545220532e-14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1984343502906297</v>
+        <v>0.1797977260789569</v>
       </c>
       <c r="F95" t="n">
-        <v>0.005899080270033092</v>
+        <v>0.06089683477896797</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02749016055299795</v>
+        <v>2.225708545220532e-14</v>
       </c>
       <c r="H95" t="n">
-        <v>0.006359860562618451</v>
+        <v>0.05488669514206401</v>
       </c>
       <c r="I95" t="n">
-        <v>0.001944940036982341</v>
+        <v>0.0008497348385273333</v>
       </c>
       <c r="J95" t="n">
-        <v>0.6748890404731162</v>
+        <v>0.7035690091613948</v>
       </c>
       <c r="K95" t="n">
-        <v>0.6748890404731162</v>
+        <v>0.7035690091613948</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -9336,38 +8790,38 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_41.fasta</t>
+          <t>label_UMGS194_68.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02699345092768841</v>
+        <v>2.224623021379775e-14</v>
       </c>
       <c r="C96" t="n">
-        <v>2.221458412793566e-14</v>
+        <v>2.224623021379775e-14</v>
       </c>
       <c r="D96" t="n">
-        <v>2.221458412793566e-14</v>
+        <v>2.224623021379775e-14</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1701794756095995</v>
+        <v>0.1741466782107434</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01345417136786025</v>
+        <v>0.02937312283069927</v>
       </c>
       <c r="G96" t="n">
-        <v>2.221458412793566e-14</v>
+        <v>2.224623021379775e-14</v>
       </c>
       <c r="H96" t="n">
-        <v>0.006021705924683853</v>
+        <v>0.04204857994880969</v>
       </c>
       <c r="I96" t="n">
-        <v>9.961200818196341e-11</v>
+        <v>0.0007237979984864196</v>
       </c>
       <c r="J96" t="n">
-        <v>0.7833511960704894</v>
+        <v>0.7537078210111722</v>
       </c>
       <c r="K96" t="n">
-        <v>0.7833511960704894</v>
+        <v>0.7537078210111722</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -9378,38 +8832,38 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_48.fasta</t>
+          <t>label_UMGS194_77.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02394852628358564</v>
+        <v>2.222354069090693e-14</v>
       </c>
       <c r="C97" t="n">
-        <v>2.225513097588165e-14</v>
+        <v>2.222354069090693e-14</v>
       </c>
       <c r="D97" t="n">
-        <v>2.225513097588165e-14</v>
+        <v>2.222354069090693e-14</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1608935727254996</v>
+        <v>0.1910320605859935</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03844475241558686</v>
+        <v>0.0639881862109645</v>
       </c>
       <c r="G97" t="n">
-        <v>2.225513097588165e-14</v>
+        <v>2.222354069090693e-14</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02497285357511565</v>
+        <v>0.03554415400671621</v>
       </c>
       <c r="I97" t="n">
-        <v>1.078408635082777e-10</v>
+        <v>0.0006398188211406491</v>
       </c>
       <c r="J97" t="n">
-        <v>0.7517402948923045</v>
+        <v>0.7087957803750963</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7517402948923045</v>
+        <v>0.7087957803750963</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -9420,38 +8874,38 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_53.fasta</t>
+          <t>label_UMGS194_84.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.02352322533494454</v>
+        <v>2.22512254099109e-14</v>
       </c>
       <c r="C98" t="n">
-        <v>2.222939506184787e-14</v>
+        <v>2.22512254099109e-14</v>
       </c>
       <c r="D98" t="n">
-        <v>2.222939506184787e-14</v>
+        <v>2.22512254099109e-14</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1587840431435511</v>
+        <v>0.1762311388662763</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01635511130649707</v>
+        <v>0.0697776240887696</v>
       </c>
       <c r="G98" t="n">
-        <v>2.222939506184787e-14</v>
+        <v>2.22512254099109e-14</v>
       </c>
       <c r="H98" t="n">
-        <v>0.004471825523729348</v>
+        <v>0.02166294666416407</v>
       </c>
       <c r="I98" t="n">
-        <v>9.128299578851457e-11</v>
+        <v>0.0006469835658712317</v>
       </c>
       <c r="J98" t="n">
-        <v>0.7968657945999283</v>
+        <v>0.7316813068148298</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7968657945999283</v>
+        <v>0.7316813068148298</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -9462,38 +8916,38 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_57.fasta</t>
+          <t>label_UMGS194_85.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01916643560311494</v>
+        <v>2.817546791893578e-14</v>
       </c>
       <c r="C99" t="n">
-        <v>2.226057779689004e-14</v>
+        <v>2.753798171931464e-14</v>
       </c>
       <c r="D99" t="n">
-        <v>2.226057779689004e-14</v>
+        <v>2.817546791893578e-14</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1202381435874198</v>
+        <v>0.2292122861202054</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02436778997635006</v>
+        <v>0.04244354858955651</v>
       </c>
       <c r="G99" t="n">
-        <v>2.226057779689004e-14</v>
+        <v>2.817546791893579e-14</v>
       </c>
       <c r="H99" t="n">
-        <v>0.005175859426471655</v>
+        <v>0.02876708865515078</v>
       </c>
       <c r="I99" t="n">
-        <v>1.287137807413852e-10</v>
+        <v>0.0006345228002605136</v>
       </c>
       <c r="J99" t="n">
-        <v>0.831051771277863</v>
+        <v>0.6989425538347149</v>
       </c>
       <c r="K99" t="n">
-        <v>0.831051771277863</v>
+        <v>0.6989425538347149</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -9504,38 +8958,38 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_60.fasta</t>
+          <t>label_UMGS194_87.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01999751348848081</v>
+        <v>2.315169109409602e-14</v>
       </c>
       <c r="C100" t="n">
-        <v>2.229248856316684e-14</v>
+        <v>2.306599308344121e-14</v>
       </c>
       <c r="D100" t="n">
-        <v>2.229248856316684e-14</v>
+        <v>2.315169109409602e-14</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1117468148714151</v>
+        <v>0.2057493170499501</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04257709742562905</v>
+        <v>0.1437664448914973</v>
       </c>
       <c r="G100" t="n">
-        <v>2.229248856316684e-14</v>
+        <v>2.315169109409601e-14</v>
       </c>
       <c r="H100" t="n">
-        <v>0.01218041602882836</v>
+        <v>0.0138671491028211</v>
       </c>
       <c r="I100" t="n">
-        <v>2.07512033219237e-10</v>
+        <v>0.001795342687812291</v>
       </c>
       <c r="J100" t="n">
-        <v>0.8134981579780678</v>
+        <v>0.6348217462678267</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8134981579780678</v>
+        <v>0.6348217462678267</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -9546,38 +9000,38 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_67.fasta</t>
+          <t>label_UMGS194_94.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01971681584030597</v>
+        <v>2.221264101711644e-14</v>
       </c>
       <c r="C101" t="n">
-        <v>2.226894875099574e-14</v>
+        <v>2.221264101711644e-14</v>
       </c>
       <c r="D101" t="n">
-        <v>2.226894875099574e-14</v>
+        <v>2.221264101711644e-14</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1355401749078106</v>
+        <v>0.1949028510952102</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0310088357407972</v>
+        <v>0.06707486693326831</v>
       </c>
       <c r="G101" t="n">
-        <v>2.226894875099574e-14</v>
+        <v>2.221264101711644e-14</v>
       </c>
       <c r="H101" t="n">
-        <v>0.005541693750245382</v>
+        <v>0.01034725221043578</v>
       </c>
       <c r="I101" t="n">
-        <v>5.747930742577336e-11</v>
+        <v>0.0007586397129919634</v>
       </c>
       <c r="J101" t="n">
-        <v>0.8081924797032948</v>
+        <v>0.7269163900480049</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8081924797032948</v>
+        <v>0.7269163900480049</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -9588,1048 +9042,40 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_7.fasta</t>
+          <t>label_UMGS194_97.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.03304309046608001</v>
+        <v>0.007475499342453429</v>
       </c>
       <c r="C102" t="n">
-        <v>0.05525164574122481</v>
+        <v>0.3137855561388504</v>
       </c>
       <c r="D102" t="n">
-        <v>0.05525164574122481</v>
+        <v>0.007475499342453429</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2824828368961668</v>
+        <v>0.2020983655155042</v>
       </c>
       <c r="F102" t="n">
-        <v>0.003896368600317484</v>
+        <v>0.007925098648826148</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05525164574122481</v>
+        <v>0.007475499342452813</v>
       </c>
       <c r="H102" t="n">
-        <v>0.002989352895733517</v>
+        <v>0.007765442458524381</v>
       </c>
       <c r="I102" t="n">
-        <v>0.002956384125059338</v>
+        <v>0.007615265369061701</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5088770297929683</v>
+        <v>0.4383837738418735</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5088770297929683</v>
+        <v>0.4383837738418735</v>
       </c>
       <c r="L102" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_70.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.01934781176854189</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.22712646356371e-14</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2.22712646356371e-14</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.1145292805130446</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.02816712266453305</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2.22712646356371e-14</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.007673448303497679</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.907274735454092e-10</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.8302823365595886</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.8302823365595886</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_72.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.02010813877303378</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2.226667355662707e-14</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.226667355662707e-14</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.1173222904163375</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.03796712363552407</v>
-      </c>
-      <c r="G104" t="n">
-        <v>2.226667355662707e-14</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.005419221970894078</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.508001817026602e-10</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.8191832248533436</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.8191832248533436</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_74.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.0230862883156433</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.224667736730416e-14</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.224667736730416e-14</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.1340559830195038</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.04141089077374133</v>
-      </c>
-      <c r="G105" t="n">
-        <v>2.224667736730416e-14</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.005079922756377005</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.662044296205542e-10</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.7963669147684634</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.7963669147684634</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_75.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.01939266095982838</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2.227707378172435e-14</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2.227707378172435e-14</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.09760902291181749</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.04101805738976465</v>
-      </c>
-      <c r="G106" t="n">
-        <v>2.227707378172435e-14</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.005173181014480917</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.306814594559704e-10</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.8368070773933602</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.8368070773933602</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_93.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.02608480091161733</v>
-      </c>
-      <c r="C107" t="n">
-        <v>2.221174450435859e-14</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2.221174450435859e-14</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.1994031370803651</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.01916914919523343</v>
-      </c>
-      <c r="G107" t="n">
-        <v>2.221174450435859e-14</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2.90641273393919e-05</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1.210120619067268e-10</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.7553138485643661</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.7553138485643661</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_102.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.007057625895195691</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.143635237282917</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.007057625895195691</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.203805685767477</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.01404267451844469</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.007057625895195681</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.01051032802577603</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.007265123167901806</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.5995680735518966</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.5995680735518966</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_105.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.007315389442828938</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.1816026896077018</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.007315389442828938</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.2029115558611238</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.01089885064086573</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.007315389442828914</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.008918911098493633</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.007560987801032332</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.5661608366622958</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.5661608366622958</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_12.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.007008224916006646</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.125876495100284</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.007008224916006646</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.2027065018593159</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.0094176746844151</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.007008224916006619</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.01099124307066008</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.007343511149337643</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.6226398993879675</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.6226398993879675</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_16.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2.223709566798964e-14</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.223709566798964e-14</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.223709566798964e-14</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.1906139096209925</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.01072808322100099</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2.223709566798964e-14</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.20718156693315</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.0006205064228130588</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.5908559338019546</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.5908559338019546</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_27.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>3.444102863987834e-14</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.299722531678893e-14</v>
-      </c>
-      <c r="D112" t="n">
-        <v>3.444102863987834e-14</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.2504120852410985</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.007102372736602043</v>
-      </c>
-      <c r="G112" t="n">
-        <v>3.444102863987833e-14</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.02614522398592805</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.0008190835236313968</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.7155212345126035</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.7155212345126035</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_35.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2.433921278463471e-14</v>
-      </c>
-      <c r="C113" t="n">
-        <v>2.412704307909392e-14</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2.433921278463471e-14</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.2108161032209264</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.01384014642876868</v>
-      </c>
-      <c r="G113" t="n">
-        <v>2.433921278463471e-14</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.02682192786246568</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.0007636584962131668</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.7477581639915288</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.7477581639915288</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_42.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2.220492714631397e-14</v>
-      </c>
-      <c r="C114" t="n">
-        <v>2.220492714631397e-14</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2.220492714631397e-14</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.1980474329538816</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.0238695173745339</v>
-      </c>
-      <c r="G114" t="n">
-        <v>2.220492714631397e-14</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.03094293704371532</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.0007832435351551763</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.7463568690926252</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.7463568690926252</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_44.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2.222434785978291e-14</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2.222394936262311e-14</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2.222434785978291e-14</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.2002315895018025</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.01960879181852223</v>
-      </c>
-      <c r="G115" t="n">
-        <v>2.222434785978291e-14</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.03410298773992524</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.0007511315557744673</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.7453054993838867</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.7453054993838867</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_52.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2.222582070717228e-14</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2.222582070717228e-14</v>
-      </c>
-      <c r="D116" t="n">
-        <v>2.222582070717228e-14</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.185793618753437</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.0277456037087416</v>
-      </c>
-      <c r="G116" t="n">
-        <v>2.222582070717228e-14</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.04080968608540822</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.0007807374147987648</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.7448703540375256</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.7448703540375256</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_55.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>2.22442254087425e-14</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2.22442254087425e-14</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2.22442254087425e-14</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.1764148417870937</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.03477022813908831</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2.22442254087425e-14</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.03859711009895473</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.000825015011412766</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.7493928049633615</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.7493928049633615</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_64.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2.222970120158706e-14</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2.222970120158706e-14</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2.222970120158706e-14</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.1855637150405526</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.03634380866091011</v>
-      </c>
-      <c r="G118" t="n">
-        <v>2.222970120158706e-14</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.03959803591564275</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.0006775039521664047</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.7378169364306392</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.7378169364306392</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_65.fasta</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2.225708545220532e-14</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2.225708545220532e-14</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2.225708545220532e-14</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.1797977260789569</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.06089683477896797</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2.225708545220532e-14</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.05488669514206401</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.0008497348385273333</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.7035690091613948</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.7035690091613948</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_68.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2.224623021379775e-14</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.224623021379775e-14</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2.224623021379775e-14</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.1741466782107434</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.02937312283069927</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.224623021379775e-14</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.04204857994880969</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.0007237979984864196</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.7537078210111722</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.7537078210111722</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_77.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2.222354069090693e-14</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2.222354069090693e-14</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2.222354069090693e-14</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.1910320605859935</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.0639881862109645</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2.222354069090693e-14</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.03554415400671621</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.0006398188211406491</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.7087957803750963</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.7087957803750963</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_84.fasta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2.22512254099109e-14</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2.22512254099109e-14</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.22512254099109e-14</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.1762311388662763</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.0697776240887696</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2.22512254099109e-14</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.02166294666416407</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.0006469835658712317</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.7316813068148298</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.7316813068148298</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_85.fasta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2.817546791893578e-14</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2.753798171931464e-14</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.817546791893578e-14</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.2292122861202054</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.04244354858955651</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2.817546791893579e-14</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.02876708865515078</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.0006345228002605136</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.6989425538347149</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.6989425538347149</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_87.fasta</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2.315169109409602e-14</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2.306599308344121e-14</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2.315169109409602e-14</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.2057493170499501</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.1437664448914973</v>
-      </c>
-      <c r="G124" t="n">
-        <v>2.315169109409601e-14</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.0138671491028211</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.001795342687812291</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.6348217462678267</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.6348217462678267</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_94.fasta</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2.221264101711644e-14</v>
-      </c>
-      <c r="C125" t="n">
-        <v>2.221264101711644e-14</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2.221264101711644e-14</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.1949028510952102</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.06707486693326831</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2.221264101711644e-14</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.01034725221043578</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.0007586397129919634</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.7269163900480049</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.7269163900480049</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_97.fasta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.007475499342453429</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.3137855561388504</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.007475499342453429</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.2020983655155042</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.007925098648826148</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.007475499342452813</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.007765442458524381</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.007615265369061701</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.4383837738418735</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.4383837738418735</v>
-      </c>
-      <c r="L126" t="inlineStr">
         <is>
           <t>s__Corynebacterium ammoniagenes</t>
         </is>
